--- a/Flair JS & CSS.xlsx
+++ b/Flair JS & CSS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\rwarframe.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="7330"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="7330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="flair.js" sheetId="1" r:id="rId1"/>
@@ -1135,10 +1135,10 @@
     <t>{background:</t>
   </si>
   <si>
-    <t>px;}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> new": "</t>
+  </si>
+  <si>
+    <t>px!important;}</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1574,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
@@ -1599,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
@@ -1624,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
@@ -1674,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
@@ -1699,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
@@ -1724,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1" t="s">
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
@@ -1799,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="1" t="s">
@@ -1824,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="1" t="s">
@@ -1849,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="1" t="s">
@@ -1874,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="1" t="s">
@@ -1899,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
@@ -1924,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
@@ -1949,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
@@ -1974,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
@@ -1999,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="1" t="s">
@@ -2024,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="1" t="s">
@@ -2049,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="1" t="s">
@@ -2074,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="1" t="s">
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1" t="s">
@@ -2124,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1" t="s">
@@ -2149,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="1" t="s">
@@ -2174,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="1" t="s">
@@ -2199,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>103</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>103</v>
@@ -2247,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>103</v>
@@ -2271,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="1" t="s">
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="1" t="s">
@@ -2321,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="1" t="s">
@@ -2346,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>103</v>
@@ -2371,7 +2373,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="1" t="s">
@@ -2397,7 +2399,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="1" t="s">
@@ -2423,7 +2425,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="1" t="s">
@@ -2449,7 +2451,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="1" t="s">
@@ -2475,7 +2477,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="1" t="s">
@@ -2501,7 +2503,7 @@
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="1" t="s">
@@ -2526,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="1" t="s">
@@ -2551,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="1" t="s">
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1" t="s">
@@ -2601,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="1" t="s">
@@ -2626,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="1" t="s">
@@ -2651,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="1" t="s">
@@ -2676,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="1" t="s">
@@ -2701,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="1" t="s">
@@ -2726,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="1" t="s">
@@ -2751,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="1" t="s">
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="1" t="s">
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="1" t="s">
@@ -2826,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1" t="s">
@@ -2851,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="1" t="s">
@@ -2877,7 +2879,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="1" t="s">
@@ -2903,7 +2905,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="1" t="s">
@@ -2929,7 +2931,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="1" t="s">
@@ -2955,7 +2957,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="1" t="s">
@@ -2981,7 +2983,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="1" t="s">
@@ -3007,7 +3009,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="1" t="s">
@@ -3033,7 +3035,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="1" t="s">
@@ -3059,7 +3061,7 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="1" t="s">
@@ -3085,7 +3087,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="1" t="s">
@@ -3111,7 +3113,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="1" t="s">
@@ -3137,7 +3139,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="1" t="s">
@@ -3163,7 +3165,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="1" t="s">
@@ -3188,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="1" t="s">
@@ -3213,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="1" t="s">
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="1" t="s">
@@ -3263,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="1" t="s">
@@ -3288,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="1" t="s">
@@ -3313,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="1" t="s">
@@ -3338,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="1" t="s">
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="1" t="s">
@@ -3388,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="1" t="s">
@@ -3413,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="1" t="s">
@@ -3438,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="1" t="s">
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="1" t="s">
@@ -3488,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="1" t="s">
@@ -3513,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="1" t="s">
@@ -3538,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="1" t="s">
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="1" t="s">
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="1" t="s">
@@ -3613,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="1" t="s">
@@ -3638,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="1" t="s">
@@ -3663,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1" t="s">
@@ -3688,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
@@ -3713,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="1" t="s">
@@ -3738,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="1" t="s">
@@ -3763,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="1" t="s">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="1" t="s">
@@ -3813,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="1" t="s">
@@ -3838,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="1" t="s">
@@ -3863,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="1" t="s">
@@ -3888,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="1" t="s">
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="1" t="s">
@@ -3938,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="1" t="s">
@@ -3963,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="1" t="s">
@@ -3988,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="1" t="s">
@@ -4013,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="1" t="s">
@@ -4038,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="1" t="s">
@@ -4063,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="1" t="s">
@@ -4088,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="1" t="s">
@@ -4113,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="1" t="s">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="1" t="s">
@@ -4163,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="1" t="s">
@@ -4188,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="1" t="s">
@@ -4213,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="1" t="s">
@@ -4238,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="1" t="s">
@@ -4263,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="1" t="s">
@@ -4288,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="1" t="s">
@@ -4313,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="1" t="s">
@@ -4338,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="1" t="s">
@@ -4363,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="1" t="s">
@@ -4388,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="1" t="s">
@@ -4413,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="1" t="s">
@@ -4438,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="1" t="s">
@@ -4463,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="1" t="s">
@@ -4488,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="1" t="s">
@@ -4513,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="1" t="s">
@@ -4538,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="1" t="s">
@@ -4563,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>103</v>
@@ -4587,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>103</v>
@@ -4611,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>103</v>
@@ -4635,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>103</v>
@@ -4659,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>103</v>
@@ -4683,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>103</v>
@@ -4707,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>103</v>
@@ -4731,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>103</v>
@@ -4755,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>103</v>
@@ -4779,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>103</v>
@@ -4803,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>103</v>
@@ -4827,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>103</v>
@@ -4851,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>103</v>
@@ -4875,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>103</v>
@@ -4899,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>103</v>
@@ -4923,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>103</v>
@@ -4947,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>103</v>
@@ -4971,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>103</v>
@@ -4995,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>103</v>
@@ -5019,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>103</v>
@@ -5043,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>103</v>
@@ -5067,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>103</v>
@@ -5091,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>103</v>
@@ -5115,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>103</v>
@@ -5139,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>103</v>
@@ -5163,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>103</v>
@@ -5187,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>103</v>
@@ -5211,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>103</v>
@@ -5235,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>103</v>
@@ -5259,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>103</v>
@@ -5283,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>103</v>
@@ -5307,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>103</v>
@@ -5331,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>103</v>
@@ -5355,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>103</v>
@@ -5379,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>103</v>
@@ -5403,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>103</v>
@@ -5427,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>103</v>
@@ -5451,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>103</v>
@@ -5475,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>103</v>
@@ -5499,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>103</v>
@@ -5523,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>103</v>
@@ -5547,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>103</v>
@@ -5571,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>103</v>
@@ -5595,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>103</v>
@@ -5619,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>103</v>
@@ -5643,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>103</v>
@@ -5667,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>103</v>
@@ -5691,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>103</v>
@@ -5715,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>103</v>
@@ -5739,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>103</v>
@@ -5763,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>103</v>
@@ -5787,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>103</v>
@@ -5811,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>103</v>
@@ -5835,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>103</v>
@@ -5859,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>103</v>
@@ -5883,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>103</v>
@@ -5907,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>103</v>
@@ -5931,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>103</v>
@@ -5955,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>103</v>
@@ -5979,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>103</v>
@@ -6003,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>103</v>
@@ -6027,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>103</v>
@@ -6051,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>103</v>
@@ -6075,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>103</v>
@@ -6099,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>103</v>
@@ -6123,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>103</v>
@@ -6147,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>103</v>
@@ -6171,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>103</v>
@@ -6195,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>103</v>
@@ -6219,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>103</v>
@@ -6243,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>103</v>
@@ -6267,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>103</v>
@@ -6291,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>103</v>
@@ -6315,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>103</v>
@@ -6339,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>103</v>
@@ -6363,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>103</v>
@@ -6387,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>103</v>
@@ -6411,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>103</v>
@@ -6435,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>103</v>
@@ -6459,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="1" t="s">
@@ -6484,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="1" t="s">
@@ -6509,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="1" t="s">
@@ -6534,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G202" s="3"/>
       <c r="H202" s="1" t="s">
@@ -6559,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="1" t="s">
@@ -6584,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="1" t="s">
@@ -6609,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="1" t="s">
@@ -6634,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="1" t="s">
@@ -6659,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="1" t="s">
@@ -6684,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>103</v>
@@ -6708,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>103</v>
@@ -6732,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>103</v>
@@ -6756,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>103</v>
@@ -6780,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>103</v>
@@ -6804,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>103</v>
@@ -6828,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>103</v>
@@ -6852,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>103</v>
@@ -6876,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>103</v>
@@ -6900,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>103</v>
@@ -6924,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>103</v>
@@ -6948,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>103</v>
@@ -6972,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>103</v>
@@ -6996,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>103</v>
@@ -7020,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>103</v>
@@ -7044,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>103</v>
@@ -7068,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>103</v>
@@ -7092,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>103</v>
@@ -7116,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>103</v>
@@ -7140,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>103</v>
@@ -7164,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>103</v>
@@ -7188,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>103</v>
@@ -7212,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>103</v>
@@ -7236,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>103</v>
@@ -7260,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>103</v>
@@ -7284,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>103</v>
@@ -7308,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>103</v>
@@ -7332,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>103</v>
@@ -7356,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>103</v>
@@ -7380,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>103</v>
@@ -7404,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>103</v>
@@ -7428,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>103</v>
@@ -7452,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>103</v>
@@ -7476,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>103</v>
@@ -7500,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>103</v>
@@ -7524,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>103</v>
@@ -7548,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>103</v>
@@ -7572,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>103</v>
@@ -7596,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>103</v>
@@ -7620,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>103</v>
@@ -7644,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>103</v>
@@ -7668,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>103</v>
@@ -7692,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>103</v>
@@ -7716,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>103</v>
@@ -7740,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>103</v>
@@ -7764,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>103</v>
@@ -7788,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>103</v>
@@ -7812,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>103</v>
@@ -7836,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>103</v>
@@ -7860,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>103</v>
@@ -7884,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>103</v>
@@ -7908,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>103</v>
@@ -7932,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>103</v>
@@ -7956,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>103</v>
@@ -7980,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>103</v>
@@ -8004,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>103</v>
@@ -8028,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>103</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>103</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>103</v>
@@ -8100,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>103</v>
@@ -8124,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>103</v>
@@ -8148,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>103</v>
@@ -8172,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>103</v>
@@ -8196,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>103</v>
@@ -8220,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>103</v>
@@ -8244,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>103</v>
@@ -8268,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>103</v>
@@ -8292,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>103</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>103</v>
@@ -8340,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>103</v>
@@ -8364,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>103</v>
@@ -8388,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>103</v>
@@ -8412,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>103</v>
@@ -8436,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>103</v>
@@ -8460,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>103</v>
@@ -8484,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>103</v>
@@ -8508,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>103</v>
@@ -8532,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>103</v>
@@ -8556,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>103</v>
@@ -8580,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>103</v>
@@ -8604,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>103</v>
@@ -8628,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>103</v>
@@ -8652,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>103</v>
@@ -8676,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>103</v>
@@ -8700,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>103</v>
@@ -8724,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>103</v>
@@ -8748,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>103</v>
@@ -8772,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>103</v>
@@ -8796,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>103</v>
@@ -8820,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>103</v>
@@ -8844,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>103</v>
@@ -8868,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>103</v>
@@ -8892,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>103</v>
@@ -8912,8 +8914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8926,7 +8928,7 @@
     <col min="6" max="6" width="3.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="4" customWidth="1"/>
     <col min="11" max="11" width="41.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="4"/>
@@ -8958,11 +8960,11 @@
         <v>205</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1&amp;H1&amp;I1</f>
-        <v>.flair-0 {background:-0000px -0000px;}</v>
+        <v>.flair-0 {background:-0000px -0000px!important;}</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -8991,11 +8993,11 @@
         <v>205</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K2" s="4" t="str">
         <f t="shared" ref="K2:K65" si="0">A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2</f>
-        <v>.flair-1 {background:-0048px -0000px;}</v>
+        <v>.flair-1 {background:-0048px -0000px!important;}</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -9024,11 +9026,11 @@
         <v>205</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-2 {background:-0096px -0000px;}</v>
+        <v>.flair-2 {background:-0096px -0000px!important;}</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -9057,11 +9059,11 @@
         <v>205</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-3 {background:-0144px -0000px;}</v>
+        <v>.flair-3 {background:-0144px -0000px!important;}</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -9090,11 +9092,11 @@
         <v>205</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-4 {background:-0192px -0000px;}</v>
+        <v>.flair-4 {background:-0192px -0000px!important;}</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -9123,11 +9125,11 @@
         <v>312</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-5 {background:-0000px -0031px;}</v>
+        <v>.flair-5 {background:-0000px -0031px!important;}</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -9156,11 +9158,11 @@
         <v>312</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-6 {background:-0048px -0031px;}</v>
+        <v>.flair-6 {background:-0048px -0031px!important;}</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -9189,11 +9191,11 @@
         <v>312</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-7 {background:-0096px -0031px;}</v>
+        <v>.flair-7 {background:-0096px -0031px!important;}</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -9222,11 +9224,11 @@
         <v>312</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-8 {background:-0144px -0031px;}</v>
+        <v>.flair-8 {background:-0144px -0031px!important;}</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -9255,11 +9257,11 @@
         <v>312</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-9 {background:-0192px -0031px;}</v>
+        <v>.flair-9 {background:-0192px -0031px!important;}</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -9288,11 +9290,11 @@
         <v>313</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-10 {background:-0000px -0062px;}</v>
+        <v>.flair-10 {background:-0000px -0062px!important;}</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -9321,11 +9323,11 @@
         <v>313</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-11 {background:-0048px -0062px;}</v>
+        <v>.flair-11 {background:-0048px -0062px!important;}</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -9354,11 +9356,11 @@
         <v>313</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-12 {background:-0096px -0062px;}</v>
+        <v>.flair-12 {background:-0096px -0062px!important;}</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -9387,11 +9389,11 @@
         <v>313</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-13 {background:-0144px -0062px;}</v>
+        <v>.flair-13 {background:-0144px -0062px!important;}</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -9420,11 +9422,11 @@
         <v>313</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-14 {background:-0192px -0062px;}</v>
+        <v>.flair-14 {background:-0192px -0062px!important;}</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -9453,11 +9455,11 @@
         <v>314</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-15 {background:-0000px -0093px;}</v>
+        <v>.flair-15 {background:-0000px -0093px!important;}</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -9486,11 +9488,11 @@
         <v>314</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-16 {background:-0048px -0093px;}</v>
+        <v>.flair-16 {background:-0048px -0093px!important;}</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -9519,11 +9521,11 @@
         <v>314</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-17 {background:-0096px -0093px;}</v>
+        <v>.flair-17 {background:-0096px -0093px!important;}</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -9552,11 +9554,11 @@
         <v>314</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-18 {background:-0144px -0093px;}</v>
+        <v>.flair-18 {background:-0144px -0093px!important;}</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -9585,11 +9587,11 @@
         <v>314</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-19 {background:-0192px -0093px;}</v>
+        <v>.flair-19 {background:-0192px -0093px!important;}</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -9618,11 +9620,11 @@
         <v>315</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-20 {background:-0000px -0124px;}</v>
+        <v>.flair-20 {background:-0000px -0124px!important;}</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -9651,11 +9653,11 @@
         <v>315</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-21 {background:-0048px -0124px;}</v>
+        <v>.flair-21 {background:-0048px -0124px!important;}</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -9684,11 +9686,11 @@
         <v>315</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-22 {background:-0096px -0124px;}</v>
+        <v>.flair-22 {background:-0096px -0124px!important;}</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -9717,11 +9719,11 @@
         <v>315</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-23 {background:-0144px -0124px;}</v>
+        <v>.flair-23 {background:-0144px -0124px!important;}</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -9750,11 +9752,11 @@
         <v>315</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-24 {background:-0192px -0124px;}</v>
+        <v>.flair-24 {background:-0192px -0124px!important;}</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -9783,11 +9785,11 @@
         <v>316</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-25 {background:-0000px -0155px;}</v>
+        <v>.flair-25 {background:-0000px -0155px!important;}</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -9816,11 +9818,11 @@
         <v>316</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-26 {background:-0048px -0155px;}</v>
+        <v>.flair-26 {background:-0048px -0155px!important;}</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -9849,11 +9851,11 @@
         <v>316</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-27 {background:-0096px -0155px;}</v>
+        <v>.flair-27 {background:-0096px -0155px!important;}</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -9882,11 +9884,11 @@
         <v>316</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-28 {background:-0144px -0155px;}</v>
+        <v>.flair-28 {background:-0144px -0155px!important;}</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -9915,11 +9917,11 @@
         <v>316</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-29 {background:-0192px -0155px;}</v>
+        <v>.flair-29 {background:-0192px -0155px!important;}</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -9948,11 +9950,11 @@
         <v>317</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-30 {background:-0000px -0186px;}</v>
+        <v>.flair-30 {background:-0000px -0186px!important;}</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -9981,11 +9983,11 @@
         <v>317</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-31 {background:-0048px -0186px;}</v>
+        <v>.flair-31 {background:-0048px -0186px!important;}</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -10014,11 +10016,11 @@
         <v>317</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-32 {background:-0096px -0186px;}</v>
+        <v>.flair-32 {background:-0096px -0186px!important;}</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -10047,11 +10049,11 @@
         <v>317</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-33 {background:-0144px -0186px;}</v>
+        <v>.flair-33 {background:-0144px -0186px!important;}</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -10080,11 +10082,11 @@
         <v>317</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-34 {background:-0192px -0186px;}</v>
+        <v>.flair-34 {background:-0192px -0186px!important;}</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -10113,11 +10115,11 @@
         <v>318</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-35 {background:-0000px -0217px;}</v>
+        <v>.flair-35 {background:-0000px -0217px!important;}</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -10146,11 +10148,11 @@
         <v>318</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-36 {background:-0048px -0217px;}</v>
+        <v>.flair-36 {background:-0048px -0217px!important;}</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -10179,11 +10181,11 @@
         <v>318</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-37 {background:-0096px -0217px;}</v>
+        <v>.flair-37 {background:-0096px -0217px!important;}</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -10212,11 +10214,11 @@
         <v>318</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-38 {background:-0144px -0217px;}</v>
+        <v>.flair-38 {background:-0144px -0217px!important;}</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -10245,11 +10247,11 @@
         <v>318</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-39 {background:-0192px -0217px;}</v>
+        <v>.flair-39 {background:-0192px -0217px!important;}</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -10278,11 +10280,11 @@
         <v>319</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-40 {background:-0000px -0248px;}</v>
+        <v>.flair-40 {background:-0000px -0248px!important;}</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -10311,11 +10313,11 @@
         <v>319</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-41 {background:-0048px -0248px;}</v>
+        <v>.flair-41 {background:-0048px -0248px!important;}</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -10344,11 +10346,11 @@
         <v>319</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-42 {background:-0096px -0248px;}</v>
+        <v>.flair-42 {background:-0096px -0248px!important;}</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -10377,11 +10379,11 @@
         <v>319</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-43 {background:-0144px -0248px;}</v>
+        <v>.flair-43 {background:-0144px -0248px!important;}</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -10410,11 +10412,11 @@
         <v>319</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-44 {background:-0192px -0248px;}</v>
+        <v>.flair-44 {background:-0192px -0248px!important;}</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -10443,11 +10445,11 @@
         <v>320</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-45 {background:-0000px -0279px;}</v>
+        <v>.flair-45 {background:-0000px -0279px!important;}</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -10476,11 +10478,11 @@
         <v>320</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-46 {background:-0048px -0279px;}</v>
+        <v>.flair-46 {background:-0048px -0279px!important;}</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -10509,11 +10511,11 @@
         <v>320</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-47 {background:-0096px -0279px;}</v>
+        <v>.flair-47 {background:-0096px -0279px!important;}</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -10542,11 +10544,11 @@
         <v>320</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-48 {background:-0144px -0279px;}</v>
+        <v>.flair-48 {background:-0144px -0279px!important;}</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -10575,11 +10577,11 @@
         <v>320</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-49 {background:-0192px -0279px;}</v>
+        <v>.flair-49 {background:-0192px -0279px!important;}</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -10608,11 +10610,11 @@
         <v>321</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-50 {background:-0000px -0310px;}</v>
+        <v>.flair-50 {background:-0000px -0310px!important;}</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -10641,11 +10643,11 @@
         <v>321</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-51 {background:-0048px -0310px;}</v>
+        <v>.flair-51 {background:-0048px -0310px!important;}</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -10674,11 +10676,11 @@
         <v>321</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-52 {background:-0096px -0310px;}</v>
+        <v>.flair-52 {background:-0096px -0310px!important;}</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -10707,11 +10709,11 @@
         <v>321</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-53 {background:-0144px -0310px;}</v>
+        <v>.flair-53 {background:-0144px -0310px!important;}</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -10740,11 +10742,11 @@
         <v>321</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-54 {background:-0192px -0310px;}</v>
+        <v>.flair-54 {background:-0192px -0310px!important;}</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -10773,11 +10775,11 @@
         <v>322</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-55 {background:-0000px -0341px;}</v>
+        <v>.flair-55 {background:-0000px -0341px!important;}</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -10806,11 +10808,11 @@
         <v>322</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-56 {background:-0048px -0341px;}</v>
+        <v>.flair-56 {background:-0048px -0341px!important;}</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -10839,11 +10841,11 @@
         <v>322</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-57 {background:-0096px -0341px;}</v>
+        <v>.flair-57 {background:-0096px -0341px!important;}</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -10872,11 +10874,11 @@
         <v>322</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-58 {background:-0144px -0341px;}</v>
+        <v>.flair-58 {background:-0144px -0341px!important;}</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -10905,11 +10907,11 @@
         <v>322</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-59 {background:-0192px -0341px;}</v>
+        <v>.flair-59 {background:-0192px -0341px!important;}</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -10938,11 +10940,11 @@
         <v>323</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-60 {background:-0000px -0372px;}</v>
+        <v>.flair-60 {background:-0000px -0372px!important;}</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -10971,11 +10973,11 @@
         <v>323</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-61 {background:-0048px -0372px;}</v>
+        <v>.flair-61 {background:-0048px -0372px!important;}</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -11004,11 +11006,11 @@
         <v>323</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-62 {background:-0096px -0372px;}</v>
+        <v>.flair-62 {background:-0096px -0372px!important;}</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -11037,11 +11039,11 @@
         <v>323</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-63 {background:-0144px -0372px;}</v>
+        <v>.flair-63 {background:-0144px -0372px!important;}</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -11070,11 +11072,11 @@
         <v>323</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>.flair-64 {background:-0192px -0372px;}</v>
+        <v>.flair-64 {background:-0192px -0372px!important;}</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -11103,11 +11105,11 @@
         <v>324</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" ref="K66:K129" si="1">A66&amp;B66&amp;C66&amp;D66&amp;E66&amp;F66&amp;G66&amp;H66&amp;I66</f>
-        <v>.flair-65 {background:-0000px -0403px;}</v>
+        <v>.flair-65 {background:-0000px -0403px!important;}</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -11136,11 +11138,11 @@
         <v>324</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-66 {background:-0048px -0403px;}</v>
+        <v>.flair-66 {background:-0048px -0403px!important;}</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -11169,11 +11171,11 @@
         <v>324</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-67 {background:-0096px -0403px;}</v>
+        <v>.flair-67 {background:-0096px -0403px!important;}</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -11202,11 +11204,11 @@
         <v>324</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-68 {background:-0144px -0403px;}</v>
+        <v>.flair-68 {background:-0144px -0403px!important;}</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -11235,11 +11237,11 @@
         <v>324</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-69 {background:-0192px -0403px;}</v>
+        <v>.flair-69 {background:-0192px -0403px!important;}</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -11268,11 +11270,11 @@
         <v>325</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-70 {background:-0000px -0434px;}</v>
+        <v>.flair-70 {background:-0000px -0434px!important;}</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -11301,11 +11303,11 @@
         <v>325</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-71 {background:-0048px -0434px;}</v>
+        <v>.flair-71 {background:-0048px -0434px!important;}</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -11334,11 +11336,11 @@
         <v>325</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-72 {background:-0096px -0434px;}</v>
+        <v>.flair-72 {background:-0096px -0434px!important;}</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -11367,11 +11369,11 @@
         <v>325</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-73 {background:-0144px -0434px;}</v>
+        <v>.flair-73 {background:-0144px -0434px!important;}</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -11400,11 +11402,11 @@
         <v>325</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-74 {background:-0192px -0434px;}</v>
+        <v>.flair-74 {background:-0192px -0434px!important;}</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -11433,11 +11435,11 @@
         <v>326</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K76" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-75 {background:-0000px -0465px;}</v>
+        <v>.flair-75 {background:-0000px -0465px!important;}</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -11466,11 +11468,11 @@
         <v>326</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K77" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-76 {background:-0048px -0465px;}</v>
+        <v>.flair-76 {background:-0048px -0465px!important;}</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -11499,11 +11501,11 @@
         <v>326</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K78" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-77 {background:-0096px -0465px;}</v>
+        <v>.flair-77 {background:-0096px -0465px!important;}</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -11532,11 +11534,11 @@
         <v>326</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K79" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-78 {background:-0144px -0465px;}</v>
+        <v>.flair-78 {background:-0144px -0465px!important;}</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -11565,11 +11567,11 @@
         <v>326</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-79 {background:-0192px -0465px;}</v>
+        <v>.flair-79 {background:-0192px -0465px!important;}</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -11598,11 +11600,11 @@
         <v>327</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-80 {background:-0000px -0496px;}</v>
+        <v>.flair-80 {background:-0000px -0496px!important;}</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -11631,11 +11633,11 @@
         <v>327</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K82" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-81 {background:-0048px -0496px;}</v>
+        <v>.flair-81 {background:-0048px -0496px!important;}</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -11664,11 +11666,11 @@
         <v>327</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K83" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-82 {background:-0096px -0496px;}</v>
+        <v>.flair-82 {background:-0096px -0496px!important;}</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -11697,11 +11699,11 @@
         <v>327</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K84" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-83 {background:-0144px -0496px;}</v>
+        <v>.flair-83 {background:-0144px -0496px!important;}</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -11730,11 +11732,11 @@
         <v>327</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K85" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-84 {background:-0192px -0496px;}</v>
+        <v>.flair-84 {background:-0192px -0496px!important;}</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -11763,11 +11765,11 @@
         <v>328</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K86" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-85 {background:-0000px -0527px;}</v>
+        <v>.flair-85 {background:-0000px -0527px!important;}</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -11796,11 +11798,11 @@
         <v>328</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K87" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-86 {background:-0048px -0527px;}</v>
+        <v>.flair-86 {background:-0048px -0527px!important;}</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -11829,11 +11831,11 @@
         <v>328</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K88" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-87 {background:-0096px -0527px;}</v>
+        <v>.flair-87 {background:-0096px -0527px!important;}</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -11862,11 +11864,11 @@
         <v>328</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K89" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-88 {background:-0144px -0527px;}</v>
+        <v>.flair-88 {background:-0144px -0527px!important;}</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -11895,11 +11897,11 @@
         <v>328</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K90" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-89 {background:-0192px -0527px;}</v>
+        <v>.flair-89 {background:-0192px -0527px!important;}</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -11928,11 +11930,11 @@
         <v>329</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K91" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-90 {background:-0000px -0558px;}</v>
+        <v>.flair-90 {background:-0000px -0558px!important;}</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -11961,11 +11963,11 @@
         <v>329</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K92" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-91 {background:-0048px -0558px;}</v>
+        <v>.flair-91 {background:-0048px -0558px!important;}</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -11994,11 +11996,11 @@
         <v>329</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K93" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-92 {background:-0096px -0558px;}</v>
+        <v>.flair-92 {background:-0096px -0558px!important;}</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -12027,11 +12029,11 @@
         <v>329</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K94" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-93 {background:-0144px -0558px;}</v>
+        <v>.flair-93 {background:-0144px -0558px!important;}</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -12060,11 +12062,11 @@
         <v>329</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K95" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-94 {background:-0192px -0558px;}</v>
+        <v>.flair-94 {background:-0192px -0558px!important;}</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -12093,11 +12095,11 @@
         <v>330</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K96" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-95 {background:-0000px -0589px;}</v>
+        <v>.flair-95 {background:-0000px -0589px!important;}</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -12126,11 +12128,11 @@
         <v>330</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K97" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-96 {background:-0048px -0589px;}</v>
+        <v>.flair-96 {background:-0048px -0589px!important;}</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -12159,11 +12161,11 @@
         <v>330</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K98" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-97 {background:-0096px -0589px;}</v>
+        <v>.flair-97 {background:-0096px -0589px!important;}</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -12192,11 +12194,11 @@
         <v>330</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K99" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-98 {background:-0144px -0589px;}</v>
+        <v>.flair-98 {background:-0144px -0589px!important;}</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -12225,11 +12227,11 @@
         <v>330</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K100" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-99 {background:-0192px -0589px;}</v>
+        <v>.flair-99 {background:-0192px -0589px!important;}</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
@@ -12258,11 +12260,11 @@
         <v>331</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K101" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-100 {background:-0000px -0620px;}</v>
+        <v>.flair-100 {background:-0000px -0620px!important;}</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -12291,11 +12293,11 @@
         <v>331</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K102" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-101 {background:-0048px -0620px;}</v>
+        <v>.flair-101 {background:-0048px -0620px!important;}</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -12324,11 +12326,11 @@
         <v>331</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K103" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-102 {background:-0096px -0620px;}</v>
+        <v>.flair-102 {background:-0096px -0620px!important;}</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -12357,11 +12359,11 @@
         <v>331</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K104" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-103 {background:-0144px -0620px;}</v>
+        <v>.flair-103 {background:-0144px -0620px!important;}</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -12390,11 +12392,11 @@
         <v>331</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K105" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-104 {background:-0192px -0620px;}</v>
+        <v>.flair-104 {background:-0192px -0620px!important;}</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -12423,11 +12425,11 @@
         <v>332</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K106" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-105 {background:-0000px -0651px;}</v>
+        <v>.flair-105 {background:-0000px -0651px!important;}</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -12456,11 +12458,11 @@
         <v>332</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K107" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-106 {background:-0048px -0651px;}</v>
+        <v>.flair-106 {background:-0048px -0651px!important;}</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
@@ -12489,11 +12491,11 @@
         <v>332</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K108" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-107 {background:-0096px -0651px;}</v>
+        <v>.flair-107 {background:-0096px -0651px!important;}</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
@@ -12522,11 +12524,11 @@
         <v>332</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K109" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-108 {background:-0144px -0651px;}</v>
+        <v>.flair-108 {background:-0144px -0651px!important;}</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
@@ -12555,11 +12557,11 @@
         <v>332</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K110" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-109 {background:-0192px -0651px;}</v>
+        <v>.flair-109 {background:-0192px -0651px!important;}</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -12588,11 +12590,11 @@
         <v>333</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K111" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-110 {background:-0000px -0682px;}</v>
+        <v>.flair-110 {background:-0000px -0682px!important;}</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
@@ -12621,11 +12623,11 @@
         <v>333</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K112" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-111 {background:-0048px -0682px;}</v>
+        <v>.flair-111 {background:-0048px -0682px!important;}</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -12654,11 +12656,11 @@
         <v>333</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K113" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-112 {background:-0096px -0682px;}</v>
+        <v>.flair-112 {background:-0096px -0682px!important;}</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -12687,11 +12689,11 @@
         <v>333</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K114" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-113 {background:-0144px -0682px;}</v>
+        <v>.flair-113 {background:-0144px -0682px!important;}</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -12720,11 +12722,11 @@
         <v>333</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K115" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-114 {background:-0192px -0682px;}</v>
+        <v>.flair-114 {background:-0192px -0682px!important;}</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -12753,11 +12755,11 @@
         <v>334</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K116" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-115 {background:-0000px -0713px;}</v>
+        <v>.flair-115 {background:-0000px -0713px!important;}</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
@@ -12786,11 +12788,11 @@
         <v>334</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K117" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-116 {background:-0048px -0713px;}</v>
+        <v>.flair-116 {background:-0048px -0713px!important;}</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
@@ -12819,11 +12821,11 @@
         <v>334</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K118" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-117 {background:-0096px -0713px;}</v>
+        <v>.flair-117 {background:-0096px -0713px!important;}</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -12852,11 +12854,11 @@
         <v>334</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K119" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-118 {background:-0144px -0713px;}</v>
+        <v>.flair-118 {background:-0144px -0713px!important;}</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -12885,11 +12887,11 @@
         <v>334</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K120" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-119 {background:-0192px -0713px;}</v>
+        <v>.flair-119 {background:-0192px -0713px!important;}</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -12918,11 +12920,11 @@
         <v>335</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K121" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-120 {background:-0000px -0744px;}</v>
+        <v>.flair-120 {background:-0000px -0744px!important;}</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -12951,11 +12953,11 @@
         <v>335</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K122" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-121 {background:-0048px -0744px;}</v>
+        <v>.flair-121 {background:-0048px -0744px!important;}</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
@@ -12984,11 +12986,11 @@
         <v>335</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K123" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-122 {background:-0096px -0744px;}</v>
+        <v>.flair-122 {background:-0096px -0744px!important;}</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -13017,11 +13019,11 @@
         <v>335</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K124" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-123 {background:-0144px -0744px;}</v>
+        <v>.flair-123 {background:-0144px -0744px!important;}</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
@@ -13050,11 +13052,11 @@
         <v>335</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K125" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-124 {background:-0192px -0744px;}</v>
+        <v>.flair-124 {background:-0192px -0744px!important;}</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
@@ -13083,11 +13085,11 @@
         <v>336</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K126" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-125 {background:-0000px -0775px;}</v>
+        <v>.flair-125 {background:-0000px -0775px!important;}</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
@@ -13116,11 +13118,11 @@
         <v>336</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K127" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-126 {background:-0048px -0775px;}</v>
+        <v>.flair-126 {background:-0048px -0775px!important;}</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
@@ -13149,11 +13151,11 @@
         <v>336</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K128" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-127 {background:-0096px -0775px;}</v>
+        <v>.flair-127 {background:-0096px -0775px!important;}</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
@@ -13182,11 +13184,11 @@
         <v>336</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K129" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>.flair-128 {background:-0144px -0775px;}</v>
+        <v>.flair-128 {background:-0144px -0775px!important;}</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
@@ -13215,11 +13217,11 @@
         <v>336</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K130" s="4" t="str">
         <f t="shared" ref="K130:K193" si="2">A130&amp;B130&amp;C130&amp;D130&amp;E130&amp;F130&amp;G130&amp;H130&amp;I130</f>
-        <v>.flair-129 {background:-0192px -0775px;}</v>
+        <v>.flair-129 {background:-0192px -0775px!important;}</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
@@ -13248,11 +13250,11 @@
         <v>337</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K131" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-130 {background:-0000px -0806px;}</v>
+        <v>.flair-130 {background:-0000px -0806px!important;}</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
@@ -13281,11 +13283,11 @@
         <v>337</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K132" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-131 {background:-0048px -0806px;}</v>
+        <v>.flair-131 {background:-0048px -0806px!important;}</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
@@ -13314,11 +13316,11 @@
         <v>337</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K133" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-132 {background:-0096px -0806px;}</v>
+        <v>.flair-132 {background:-0096px -0806px!important;}</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
@@ -13347,11 +13349,11 @@
         <v>337</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K134" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-133 {background:-0144px -0806px;}</v>
+        <v>.flair-133 {background:-0144px -0806px!important;}</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
@@ -13380,11 +13382,11 @@
         <v>337</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K135" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-134 {background:-0192px -0806px;}</v>
+        <v>.flair-134 {background:-0192px -0806px!important;}</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
@@ -13413,11 +13415,11 @@
         <v>338</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K136" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-135 {background:-0000px -0837px;}</v>
+        <v>.flair-135 {background:-0000px -0837px!important;}</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
@@ -13446,11 +13448,11 @@
         <v>338</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K137" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-136 {background:-0048px -0837px;}</v>
+        <v>.flair-136 {background:-0048px -0837px!important;}</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
@@ -13479,11 +13481,11 @@
         <v>338</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K138" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-137 {background:-0096px -0837px;}</v>
+        <v>.flair-137 {background:-0096px -0837px!important;}</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
@@ -13512,11 +13514,11 @@
         <v>338</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K139" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-138 {background:-0144px -0837px;}</v>
+        <v>.flair-138 {background:-0144px -0837px!important;}</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
@@ -13545,11 +13547,11 @@
         <v>338</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K140" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-139 {background:-0192px -0837px;}</v>
+        <v>.flair-139 {background:-0192px -0837px!important;}</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
@@ -13578,11 +13580,11 @@
         <v>339</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K141" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-140 {background:-0000px -0868px;}</v>
+        <v>.flair-140 {background:-0000px -0868px!important;}</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
@@ -13611,11 +13613,11 @@
         <v>339</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K142" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-141 {background:-0048px -0868px;}</v>
+        <v>.flair-141 {background:-0048px -0868px!important;}</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
@@ -13644,11 +13646,11 @@
         <v>339</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K143" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-142 {background:-0096px -0868px;}</v>
+        <v>.flair-142 {background:-0096px -0868px!important;}</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
@@ -13677,11 +13679,11 @@
         <v>339</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K144" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-143 {background:-0144px -0868px;}</v>
+        <v>.flair-143 {background:-0144px -0868px!important;}</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
@@ -13710,11 +13712,11 @@
         <v>339</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K145" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-144 {background:-0192px -0868px;}</v>
+        <v>.flair-144 {background:-0192px -0868px!important;}</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
@@ -13743,11 +13745,11 @@
         <v>340</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K146" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-145 {background:-0000px -0899px;}</v>
+        <v>.flair-145 {background:-0000px -0899px!important;}</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
@@ -13776,11 +13778,11 @@
         <v>340</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K147" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-146 {background:-0048px -0899px;}</v>
+        <v>.flair-146 {background:-0048px -0899px!important;}</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
@@ -13809,11 +13811,11 @@
         <v>340</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K148" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-147 {background:-0096px -0899px;}</v>
+        <v>.flair-147 {background:-0096px -0899px!important;}</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
@@ -13842,11 +13844,11 @@
         <v>340</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K149" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-148 {background:-0144px -0899px;}</v>
+        <v>.flair-148 {background:-0144px -0899px!important;}</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
@@ -13875,11 +13877,11 @@
         <v>340</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K150" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-149 {background:-0192px -0899px;}</v>
+        <v>.flair-149 {background:-0192px -0899px!important;}</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
@@ -13908,11 +13910,11 @@
         <v>206</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K151" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-150 {background:-0000px -0930px;}</v>
+        <v>.flair-150 {background:-0000px -0930px!important;}</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
@@ -13941,11 +13943,11 @@
         <v>206</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K152" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-151 {background:-0048px -0930px;}</v>
+        <v>.flair-151 {background:-0048px -0930px!important;}</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
@@ -13974,11 +13976,11 @@
         <v>206</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K153" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-152 {background:-0096px -0930px;}</v>
+        <v>.flair-152 {background:-0096px -0930px!important;}</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
@@ -14007,11 +14009,11 @@
         <v>206</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K154" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-153 {background:-0144px -0930px;}</v>
+        <v>.flair-153 {background:-0144px -0930px!important;}</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
@@ -14040,11 +14042,11 @@
         <v>206</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K155" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-154 {background:-0192px -0930px;}</v>
+        <v>.flair-154 {background:-0192px -0930px!important;}</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
@@ -14073,11 +14075,11 @@
         <v>341</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K156" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-155 {background:-0000px -0961px;}</v>
+        <v>.flair-155 {background:-0000px -0961px!important;}</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
@@ -14106,11 +14108,11 @@
         <v>341</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K157" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-156 {background:-0048px -0961px;}</v>
+        <v>.flair-156 {background:-0048px -0961px!important;}</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
@@ -14139,11 +14141,11 @@
         <v>341</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K158" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-157 {background:-0096px -0961px;}</v>
+        <v>.flair-157 {background:-0096px -0961px!important;}</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
@@ -14172,11 +14174,11 @@
         <v>341</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K159" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-158 {background:-0144px -0961px;}</v>
+        <v>.flair-158 {background:-0144px -0961px!important;}</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -14205,11 +14207,11 @@
         <v>341</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K160" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-159 {background:-0192px -0961px;}</v>
+        <v>.flair-159 {background:-0192px -0961px!important;}</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
@@ -14238,11 +14240,11 @@
         <v>342</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K161" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-160 {background:-0000px -0992px;}</v>
+        <v>.flair-160 {background:-0000px -0992px!important;}</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -14271,11 +14273,11 @@
         <v>342</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K162" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-161 {background:-0048px -0992px;}</v>
+        <v>.flair-161 {background:-0048px -0992px!important;}</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
@@ -14304,11 +14306,11 @@
         <v>342</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K163" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-162 {background:-0096px -0992px;}</v>
+        <v>.flair-162 {background:-0096px -0992px!important;}</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
@@ -14337,11 +14339,11 @@
         <v>342</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K164" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-163 {background:-0144px -0992px;}</v>
+        <v>.flair-163 {background:-0144px -0992px!important;}</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
@@ -14370,11 +14372,11 @@
         <v>342</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K165" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-164 {background:-0192px -0992px;}</v>
+        <v>.flair-164 {background:-0192px -0992px!important;}</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -14403,11 +14405,11 @@
         <v>343</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K166" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-165 {background:-0000px -1023px;}</v>
+        <v>.flair-165 {background:-0000px -1023px!important;}</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
@@ -14436,11 +14438,11 @@
         <v>343</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K167" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-166 {background:-0048px -1023px;}</v>
+        <v>.flair-166 {background:-0048px -1023px!important;}</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -14469,11 +14471,11 @@
         <v>343</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K168" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-167 {background:-0096px -1023px;}</v>
+        <v>.flair-167 {background:-0096px -1023px!important;}</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
@@ -14502,11 +14504,11 @@
         <v>343</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K169" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-168 {background:-0144px -1023px;}</v>
+        <v>.flair-168 {background:-0144px -1023px!important;}</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
@@ -14535,11 +14537,11 @@
         <v>343</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K170" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-169 {background:-0192px -1023px;}</v>
+        <v>.flair-169 {background:-0192px -1023px!important;}</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
@@ -14568,11 +14570,11 @@
         <v>344</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K171" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-170 {background:-0000px -1054px;}</v>
+        <v>.flair-170 {background:-0000px -1054px!important;}</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
@@ -14601,11 +14603,11 @@
         <v>344</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K172" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-171 {background:-0048px -1054px;}</v>
+        <v>.flair-171 {background:-0048px -1054px!important;}</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
@@ -14634,11 +14636,11 @@
         <v>344</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K173" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-172 {background:-0096px -1054px;}</v>
+        <v>.flair-172 {background:-0096px -1054px!important;}</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
@@ -14667,11 +14669,11 @@
         <v>344</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K174" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-173 {background:-0144px -1054px;}</v>
+        <v>.flair-173 {background:-0144px -1054px!important;}</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.35">
@@ -14700,11 +14702,11 @@
         <v>344</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K175" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-174 {background:-0192px -1054px;}</v>
+        <v>.flair-174 {background:-0192px -1054px!important;}</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.35">
@@ -14733,11 +14735,11 @@
         <v>345</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K176" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-175 {background:-0000px -1085px;}</v>
+        <v>.flair-175 {background:-0000px -1085px!important;}</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.35">
@@ -14766,11 +14768,11 @@
         <v>345</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K177" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-176 {background:-0048px -1085px;}</v>
+        <v>.flair-176 {background:-0048px -1085px!important;}</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
@@ -14799,11 +14801,11 @@
         <v>345</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K178" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-177 {background:-0096px -1085px;}</v>
+        <v>.flair-177 {background:-0096px -1085px!important;}</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.35">
@@ -14832,11 +14834,11 @@
         <v>345</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K179" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-178 {background:-0144px -1085px;}</v>
+        <v>.flair-178 {background:-0144px -1085px!important;}</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
@@ -14865,11 +14867,11 @@
         <v>345</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K180" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-179 {background:-0192px -1085px;}</v>
+        <v>.flair-179 {background:-0192px -1085px!important;}</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.35">
@@ -14898,11 +14900,11 @@
         <v>346</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K181" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-180 {background:-0000px -1116px;}</v>
+        <v>.flair-180 {background:-0000px -1116px!important;}</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
@@ -14931,11 +14933,11 @@
         <v>346</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K182" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-181 {background:-0048px -1116px;}</v>
+        <v>.flair-181 {background:-0048px -1116px!important;}</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.35">
@@ -14964,11 +14966,11 @@
         <v>346</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K183" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-182 {background:-0096px -1116px;}</v>
+        <v>.flair-182 {background:-0096px -1116px!important;}</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
@@ -14997,11 +14999,11 @@
         <v>346</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K184" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-183 {background:-0144px -1116px;}</v>
+        <v>.flair-183 {background:-0144px -1116px!important;}</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.35">
@@ -15030,11 +15032,11 @@
         <v>346</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K185" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-184 {background:-0192px -1116px;}</v>
+        <v>.flair-184 {background:-0192px -1116px!important;}</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
@@ -15063,11 +15065,11 @@
         <v>347</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K186" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-185 {background:-0000px -1147px;}</v>
+        <v>.flair-185 {background:-0000px -1147px!important;}</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.35">
@@ -15096,11 +15098,11 @@
         <v>347</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K187" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-186 {background:-0048px -1147px;}</v>
+        <v>.flair-186 {background:-0048px -1147px!important;}</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.35">
@@ -15129,11 +15131,11 @@
         <v>347</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K188" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-187 {background:-0096px -1147px;}</v>
+        <v>.flair-187 {background:-0096px -1147px!important;}</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
@@ -15162,11 +15164,11 @@
         <v>347</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K189" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-188 {background:-0144px -1147px;}</v>
+        <v>.flair-188 {background:-0144px -1147px!important;}</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.35">
@@ -15195,11 +15197,11 @@
         <v>347</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K190" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-189 {background:-0192px -1147px;}</v>
+        <v>.flair-189 {background:-0192px -1147px!important;}</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
@@ -15228,11 +15230,11 @@
         <v>348</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K191" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-190 {background:-0000px -1178px;}</v>
+        <v>.flair-190 {background:-0000px -1178px!important;}</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.35">
@@ -15261,11 +15263,11 @@
         <v>348</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K192" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-191 {background:-0048px -1178px;}</v>
+        <v>.flair-191 {background:-0048px -1178px!important;}</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.35">
@@ -15294,11 +15296,11 @@
         <v>348</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K193" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>.flair-192 {background:-0096px -1178px;}</v>
+        <v>.flair-192 {background:-0096px -1178px!important;}</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.35">
@@ -15327,11 +15329,11 @@
         <v>348</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K194" s="4" t="str">
         <f t="shared" ref="K194:K257" si="3">A194&amp;B194&amp;C194&amp;D194&amp;E194&amp;F194&amp;G194&amp;H194&amp;I194</f>
-        <v>.flair-193 {background:-0144px -1178px;}</v>
+        <v>.flair-193 {background:-0144px -1178px!important;}</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.35">
@@ -15360,11 +15362,11 @@
         <v>348</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K195" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-194 {background:-0192px -1178px;}</v>
+        <v>.flair-194 {background:-0192px -1178px!important;}</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.35">
@@ -15393,11 +15395,11 @@
         <v>349</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K196" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-195 {background:-0000px -1209px;}</v>
+        <v>.flair-195 {background:-0000px -1209px!important;}</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.35">
@@ -15426,11 +15428,11 @@
         <v>349</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K197" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-196 {background:-0048px -1209px;}</v>
+        <v>.flair-196 {background:-0048px -1209px!important;}</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.35">
@@ -15459,11 +15461,11 @@
         <v>349</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K198" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-197 {background:-0096px -1209px;}</v>
+        <v>.flair-197 {background:-0096px -1209px!important;}</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.35">
@@ -15492,11 +15494,11 @@
         <v>349</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K199" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-198 {background:-0144px -1209px;}</v>
+        <v>.flair-198 {background:-0144px -1209px!important;}</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.35">
@@ -15525,11 +15527,11 @@
         <v>349</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K200" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-199 {background:-0192px -1209px;}</v>
+        <v>.flair-199 {background:-0192px -1209px!important;}</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.35">
@@ -15558,11 +15560,11 @@
         <v>350</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K201" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-200 {background:-0000px -1240px;}</v>
+        <v>.flair-200 {background:-0000px -1240px!important;}</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.35">
@@ -15591,11 +15593,11 @@
         <v>350</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K202" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-201 {background:-0048px -1240px;}</v>
+        <v>.flair-201 {background:-0048px -1240px!important;}</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.35">
@@ -15624,11 +15626,11 @@
         <v>350</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K203" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-202 {background:-0096px -1240px;}</v>
+        <v>.flair-202 {background:-0096px -1240px!important;}</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.35">
@@ -15657,11 +15659,11 @@
         <v>350</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K204" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-203 {background:-0144px -1240px;}</v>
+        <v>.flair-203 {background:-0144px -1240px!important;}</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.35">
@@ -15690,11 +15692,11 @@
         <v>350</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K205" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-204 {background:-0192px -1240px;}</v>
+        <v>.flair-204 {background:-0192px -1240px!important;}</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.35">
@@ -15723,11 +15725,11 @@
         <v>351</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K206" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-205 {background:-0000px -1271px;}</v>
+        <v>.flair-205 {background:-0000px -1271px!important;}</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.35">
@@ -15756,11 +15758,11 @@
         <v>351</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K207" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-206 {background:-0048px -1271px;}</v>
+        <v>.flair-206 {background:-0048px -1271px!important;}</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.35">
@@ -15789,11 +15791,11 @@
         <v>351</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K208" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-207 {background:-0096px -1271px;}</v>
+        <v>.flair-207 {background:-0096px -1271px!important;}</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.35">
@@ -15822,11 +15824,11 @@
         <v>351</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K209" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-208 {background:-0144px -1271px;}</v>
+        <v>.flair-208 {background:-0144px -1271px!important;}</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.35">
@@ -15855,11 +15857,11 @@
         <v>351</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K210" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-209 {background:-0192px -1271px;}</v>
+        <v>.flair-209 {background:-0192px -1271px!important;}</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.35">
@@ -15888,11 +15890,11 @@
         <v>352</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K211" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-210 {background:-0000px -1302px;}</v>
+        <v>.flair-210 {background:-0000px -1302px!important;}</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.35">
@@ -15921,11 +15923,11 @@
         <v>352</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K212" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-211 {background:-0048px -1302px;}</v>
+        <v>.flair-211 {background:-0048px -1302px!important;}</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.35">
@@ -15954,11 +15956,11 @@
         <v>352</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K213" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-212 {background:-0096px -1302px;}</v>
+        <v>.flair-212 {background:-0096px -1302px!important;}</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.35">
@@ -15987,11 +15989,11 @@
         <v>352</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K214" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-213 {background:-0144px -1302px;}</v>
+        <v>.flair-213 {background:-0144px -1302px!important;}</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.35">
@@ -16020,11 +16022,11 @@
         <v>352</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K215" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-214 {background:-0192px -1302px;}</v>
+        <v>.flair-214 {background:-0192px -1302px!important;}</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.35">
@@ -16053,11 +16055,11 @@
         <v>353</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K216" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-215 {background:-0000px -1333px;}</v>
+        <v>.flair-215 {background:-0000px -1333px!important;}</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.35">
@@ -16086,11 +16088,11 @@
         <v>353</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K217" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-216 {background:-0048px -1333px;}</v>
+        <v>.flair-216 {background:-0048px -1333px!important;}</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.35">
@@ -16119,11 +16121,11 @@
         <v>353</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K218" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-217 {background:-0096px -1333px;}</v>
+        <v>.flair-217 {background:-0096px -1333px!important;}</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.35">
@@ -16152,11 +16154,11 @@
         <v>353</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K219" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-218 {background:-0144px -1333px;}</v>
+        <v>.flair-218 {background:-0144px -1333px!important;}</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.35">
@@ -16185,11 +16187,11 @@
         <v>353</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K220" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-219 {background:-0192px -1333px;}</v>
+        <v>.flair-219 {background:-0192px -1333px!important;}</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.35">
@@ -16218,11 +16220,11 @@
         <v>354</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K221" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-220 {background:-0000px -1364px;}</v>
+        <v>.flair-220 {background:-0000px -1364px!important;}</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.35">
@@ -16251,11 +16253,11 @@
         <v>354</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K222" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-221 {background:-0048px -1364px;}</v>
+        <v>.flair-221 {background:-0048px -1364px!important;}</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.35">
@@ -16284,11 +16286,11 @@
         <v>354</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K223" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-222 {background:-0096px -1364px;}</v>
+        <v>.flair-222 {background:-0096px -1364px!important;}</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.35">
@@ -16317,11 +16319,11 @@
         <v>354</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K224" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-223 {background:-0144px -1364px;}</v>
+        <v>.flair-223 {background:-0144px -1364px!important;}</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.35">
@@ -16350,11 +16352,11 @@
         <v>354</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K225" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-224 {background:-0192px -1364px;}</v>
+        <v>.flair-224 {background:-0192px -1364px!important;}</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.35">
@@ -16383,11 +16385,11 @@
         <v>355</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K226" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-225 {background:-0000px -1395px;}</v>
+        <v>.flair-225 {background:-0000px -1395px!important;}</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.35">
@@ -16416,11 +16418,11 @@
         <v>355</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K227" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-226 {background:-0048px -1395px;}</v>
+        <v>.flair-226 {background:-0048px -1395px!important;}</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.35">
@@ -16449,11 +16451,11 @@
         <v>355</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K228" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-227 {background:-0096px -1395px;}</v>
+        <v>.flair-227 {background:-0096px -1395px!important;}</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.35">
@@ -16482,11 +16484,11 @@
         <v>355</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K229" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-228 {background:-0144px -1395px;}</v>
+        <v>.flair-228 {background:-0144px -1395px!important;}</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.35">
@@ -16515,11 +16517,11 @@
         <v>355</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K230" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-229 {background:-0192px -1395px;}</v>
+        <v>.flair-229 {background:-0192px -1395px!important;}</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.35">
@@ -16548,11 +16550,11 @@
         <v>356</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K231" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-230 {background:-0000px -1426px;}</v>
+        <v>.flair-230 {background:-0000px -1426px!important;}</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.35">
@@ -16581,11 +16583,11 @@
         <v>356</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K232" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-231 {background:-0048px -1426px;}</v>
+        <v>.flair-231 {background:-0048px -1426px!important;}</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.35">
@@ -16614,11 +16616,11 @@
         <v>356</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K233" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-232 {background:-0096px -1426px;}</v>
+        <v>.flair-232 {background:-0096px -1426px!important;}</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.35">
@@ -16647,11 +16649,11 @@
         <v>356</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K234" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-233 {background:-0144px -1426px;}</v>
+        <v>.flair-233 {background:-0144px -1426px!important;}</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.35">
@@ -16680,11 +16682,11 @@
         <v>356</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K235" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-234 {background:-0192px -1426px;}</v>
+        <v>.flair-234 {background:-0192px -1426px!important;}</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.35">
@@ -16713,11 +16715,11 @@
         <v>357</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K236" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-235 {background:-0000px -1457px;}</v>
+        <v>.flair-235 {background:-0000px -1457px!important;}</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.35">
@@ -16746,11 +16748,11 @@
         <v>357</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K237" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-236 {background:-0048px -1457px;}</v>
+        <v>.flair-236 {background:-0048px -1457px!important;}</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.35">
@@ -16779,11 +16781,11 @@
         <v>357</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K238" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-237 {background:-0096px -1457px;}</v>
+        <v>.flair-237 {background:-0096px -1457px!important;}</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.35">
@@ -16812,11 +16814,11 @@
         <v>357</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K239" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-238 {background:-0144px -1457px;}</v>
+        <v>.flair-238 {background:-0144px -1457px!important;}</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.35">
@@ -16845,11 +16847,11 @@
         <v>357</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K240" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-239 {background:-0192px -1457px;}</v>
+        <v>.flair-239 {background:-0192px -1457px!important;}</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.35">
@@ -16878,11 +16880,11 @@
         <v>358</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K241" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-240 {background:-0000px -1488px;}</v>
+        <v>.flair-240 {background:-0000px -1488px!important;}</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.35">
@@ -16911,11 +16913,11 @@
         <v>358</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K242" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-241 {background:-0048px -1488px;}</v>
+        <v>.flair-241 {background:-0048px -1488px!important;}</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.35">
@@ -16944,11 +16946,11 @@
         <v>358</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K243" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-242 {background:-0096px -1488px;}</v>
+        <v>.flair-242 {background:-0096px -1488px!important;}</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.35">
@@ -16977,11 +16979,11 @@
         <v>358</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K244" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-243 {background:-0144px -1488px;}</v>
+        <v>.flair-243 {background:-0144px -1488px!important;}</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.35">
@@ -17010,11 +17012,11 @@
         <v>358</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K245" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-244 {background:-0192px -1488px;}</v>
+        <v>.flair-244 {background:-0192px -1488px!important;}</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.35">
@@ -17043,11 +17045,11 @@
         <v>359</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K246" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-245 {background:-0000px -1519px;}</v>
+        <v>.flair-245 {background:-0000px -1519px!important;}</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.35">
@@ -17076,11 +17078,11 @@
         <v>359</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K247" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-246 {background:-0048px -1519px;}</v>
+        <v>.flair-246 {background:-0048px -1519px!important;}</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.35">
@@ -17109,11 +17111,11 @@
         <v>359</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K248" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-247 {background:-0096px -1519px;}</v>
+        <v>.flair-247 {background:-0096px -1519px!important;}</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.35">
@@ -17142,11 +17144,11 @@
         <v>359</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K249" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-248 {background:-0144px -1519px;}</v>
+        <v>.flair-248 {background:-0144px -1519px!important;}</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.35">
@@ -17175,11 +17177,11 @@
         <v>359</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K250" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-249 {background:-0192px -1519px;}</v>
+        <v>.flair-249 {background:-0192px -1519px!important;}</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.35">
@@ -17208,11 +17210,11 @@
         <v>360</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K251" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-250 {background:-0000px -1550px;}</v>
+        <v>.flair-250 {background:-0000px -1550px!important;}</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.35">
@@ -17241,11 +17243,11 @@
         <v>360</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K252" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-251 {background:-0048px -1550px;}</v>
+        <v>.flair-251 {background:-0048px -1550px!important;}</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.35">
@@ -17274,11 +17276,11 @@
         <v>360</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K253" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-252 {background:-0096px -1550px;}</v>
+        <v>.flair-252 {background:-0096px -1550px!important;}</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.35">
@@ -17307,11 +17309,11 @@
         <v>360</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K254" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-253 {background:-0144px -1550px;}</v>
+        <v>.flair-253 {background:-0144px -1550px!important;}</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.35">
@@ -17340,11 +17342,11 @@
         <v>360</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K255" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-254 {background:-0192px -1550px;}</v>
+        <v>.flair-254 {background:-0192px -1550px!important;}</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.35">
@@ -17373,11 +17375,11 @@
         <v>361</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K256" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-255 {background:-0000px -1581px;}</v>
+        <v>.flair-255 {background:-0000px -1581px!important;}</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.35">
@@ -17406,11 +17408,11 @@
         <v>361</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K257" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>.flair-256 {background:-0048px -1581px;}</v>
+        <v>.flair-256 {background:-0048px -1581px!important;}</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.35">
@@ -17439,11 +17441,11 @@
         <v>361</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K258" s="4" t="str">
         <f t="shared" ref="K258:K300" si="4">A258&amp;B258&amp;C258&amp;D258&amp;E258&amp;F258&amp;G258&amp;H258&amp;I258</f>
-        <v>.flair-257 {background:-0096px -1581px;}</v>
+        <v>.flair-257 {background:-0096px -1581px!important;}</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.35">
@@ -17472,11 +17474,11 @@
         <v>361</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K259" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-258 {background:-0144px -1581px;}</v>
+        <v>.flair-258 {background:-0144px -1581px!important;}</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.35">
@@ -17505,11 +17507,11 @@
         <v>361</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K260" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-259 {background:-0192px -1581px;}</v>
+        <v>.flair-259 {background:-0192px -1581px!important;}</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.35">
@@ -17538,11 +17540,11 @@
         <v>362</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K261" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-260 {background:-0000px -1612px;}</v>
+        <v>.flair-260 {background:-0000px -1612px!important;}</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.35">
@@ -17571,11 +17573,11 @@
         <v>362</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K262" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-261 {background:-0048px -1612px;}</v>
+        <v>.flair-261 {background:-0048px -1612px!important;}</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.35">
@@ -17604,11 +17606,11 @@
         <v>362</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K263" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-262 {background:-0096px -1612px;}</v>
+        <v>.flair-262 {background:-0096px -1612px!important;}</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.35">
@@ -17637,11 +17639,11 @@
         <v>362</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K264" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-263 {background:-0144px -1612px;}</v>
+        <v>.flair-263 {background:-0144px -1612px!important;}</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.35">
@@ -17670,11 +17672,11 @@
         <v>362</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K265" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-264 {background:-0192px -1612px;}</v>
+        <v>.flair-264 {background:-0192px -1612px!important;}</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.35">
@@ -17703,11 +17705,11 @@
         <v>363</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K266" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-265 {background:-0000px -1643px;}</v>
+        <v>.flair-265 {background:-0000px -1643px!important;}</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.35">
@@ -17736,11 +17738,11 @@
         <v>363</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K267" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-266 {background:-0048px -1643px;}</v>
+        <v>.flair-266 {background:-0048px -1643px!important;}</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.35">
@@ -17769,11 +17771,11 @@
         <v>363</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K268" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-267 {background:-0096px -1643px;}</v>
+        <v>.flair-267 {background:-0096px -1643px!important;}</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.35">
@@ -17802,11 +17804,11 @@
         <v>363</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K269" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-268 {background:-0144px -1643px;}</v>
+        <v>.flair-268 {background:-0144px -1643px!important;}</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.35">
@@ -17835,11 +17837,11 @@
         <v>363</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K270" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-269 {background:-0192px -1643px;}</v>
+        <v>.flair-269 {background:-0192px -1643px!important;}</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.35">
@@ -17868,11 +17870,11 @@
         <v>364</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K271" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-270 {background:-0000px -1674px;}</v>
+        <v>.flair-270 {background:-0000px -1674px!important;}</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.35">
@@ -17901,11 +17903,11 @@
         <v>364</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K272" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-271 {background:-0048px -1674px;}</v>
+        <v>.flair-271 {background:-0048px -1674px!important;}</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.35">
@@ -17934,11 +17936,11 @@
         <v>364</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K273" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-272 {background:-0096px -1674px;}</v>
+        <v>.flair-272 {background:-0096px -1674px!important;}</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.35">
@@ -17967,11 +17969,11 @@
         <v>364</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K274" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-273 {background:-0144px -1674px;}</v>
+        <v>.flair-273 {background:-0144px -1674px!important;}</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.35">
@@ -18000,11 +18002,11 @@
         <v>364</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K275" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-274 {background:-0192px -1674px;}</v>
+        <v>.flair-274 {background:-0192px -1674px!important;}</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.35">
@@ -18033,11 +18035,11 @@
         <v>365</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K276" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-275 {background:-0000px -1705px;}</v>
+        <v>.flair-275 {background:-0000px -1705px!important;}</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.35">
@@ -18066,11 +18068,11 @@
         <v>365</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K277" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-276 {background:-0048px -1705px;}</v>
+        <v>.flair-276 {background:-0048px -1705px!important;}</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.35">
@@ -18099,11 +18101,11 @@
         <v>365</v>
       </c>
       <c r="I278" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K278" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-277 {background:-0096px -1705px;}</v>
+        <v>.flair-277 {background:-0096px -1705px!important;}</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.35">
@@ -18132,11 +18134,11 @@
         <v>365</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K279" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-278 {background:-0144px -1705px;}</v>
+        <v>.flair-278 {background:-0144px -1705px!important;}</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.35">
@@ -18165,11 +18167,11 @@
         <v>365</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K280" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-279 {background:-0192px -1705px;}</v>
+        <v>.flair-279 {background:-0192px -1705px!important;}</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.35">
@@ -18198,11 +18200,11 @@
         <v>366</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K281" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-280 {background:-0000px -1736px;}</v>
+        <v>.flair-280 {background:-0000px -1736px!important;}</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.35">
@@ -18231,11 +18233,11 @@
         <v>366</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K282" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-281 {background:-0048px -1736px;}</v>
+        <v>.flair-281 {background:-0048px -1736px!important;}</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.35">
@@ -18264,11 +18266,11 @@
         <v>366</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K283" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-282 {background:-0096px -1736px;}</v>
+        <v>.flair-282 {background:-0096px -1736px!important;}</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.35">
@@ -18297,11 +18299,11 @@
         <v>366</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K284" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-283 {background:-0144px -1736px;}</v>
+        <v>.flair-283 {background:-0144px -1736px!important;}</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.35">
@@ -18330,11 +18332,11 @@
         <v>366</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K285" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-284 {background:-0192px -1736px;}</v>
+        <v>.flair-284 {background:-0192px -1736px!important;}</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.35">
@@ -18363,11 +18365,11 @@
         <v>367</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K286" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-285 {background:-0000px -1767px;}</v>
+        <v>.flair-285 {background:-0000px -1767px!important;}</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.35">
@@ -18396,11 +18398,11 @@
         <v>367</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K287" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-286 {background:-0048px -1767px;}</v>
+        <v>.flair-286 {background:-0048px -1767px!important;}</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.35">
@@ -18429,11 +18431,11 @@
         <v>367</v>
       </c>
       <c r="I288" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K288" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-287 {background:-0096px -1767px;}</v>
+        <v>.flair-287 {background:-0096px -1767px!important;}</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.35">
@@ -18462,11 +18464,11 @@
         <v>367</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K289" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-288 {background:-0144px -1767px;}</v>
+        <v>.flair-288 {background:-0144px -1767px!important;}</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.35">
@@ -18495,11 +18497,11 @@
         <v>367</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K290" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-289 {background:-0192px -1767px;}</v>
+        <v>.flair-289 {background:-0192px -1767px!important;}</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.35">
@@ -18528,11 +18530,11 @@
         <v>368</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K291" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-290 {background:-0000px -1798px;}</v>
+        <v>.flair-290 {background:-0000px -1798px!important;}</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.35">
@@ -18561,11 +18563,11 @@
         <v>368</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K292" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-291 {background:-0048px -1798px;}</v>
+        <v>.flair-291 {background:-0048px -1798px!important;}</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.35">
@@ -18594,11 +18596,11 @@
         <v>368</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K293" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-292 {background:-0096px -1798px;}</v>
+        <v>.flair-292 {background:-0096px -1798px!important;}</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.35">
@@ -18627,11 +18629,11 @@
         <v>368</v>
       </c>
       <c r="I294" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K294" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-293 {background:-0144px -1798px;}</v>
+        <v>.flair-293 {background:-0144px -1798px!important;}</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.35">
@@ -18660,11 +18662,11 @@
         <v>368</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K295" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-294 {background:-0192px -1798px;}</v>
+        <v>.flair-294 {background:-0192px -1798px!important;}</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.35">
@@ -18693,11 +18695,11 @@
         <v>369</v>
       </c>
       <c r="I296" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K296" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-295 {background:-0000px -1829px;}</v>
+        <v>.flair-295 {background:-0000px -1829px!important;}</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.35">
@@ -18726,11 +18728,11 @@
         <v>369</v>
       </c>
       <c r="I297" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K297" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-296 {background:-0048px -1829px;}</v>
+        <v>.flair-296 {background:-0048px -1829px!important;}</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.35">
@@ -18759,11 +18761,11 @@
         <v>369</v>
       </c>
       <c r="I298" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K298" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-297 {background:-0096px -1829px;}</v>
+        <v>.flair-297 {background:-0096px -1829px!important;}</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.35">
@@ -18792,11 +18794,11 @@
         <v>369</v>
       </c>
       <c r="I299" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K299" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-298 {background:-0144px -1829px;}</v>
+        <v>.flair-298 {background:-0144px -1829px!important;}</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.35">
@@ -18825,11 +18827,11 @@
         <v>369</v>
       </c>
       <c r="I300" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K300" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>.flair-299 {background:-0192px -1829px;}</v>
+        <v>.flair-299 {background:-0192px -1829px!important;}</v>
       </c>
     </row>
   </sheetData>

--- a/Flair JS & CSS.xlsx
+++ b/Flair JS & CSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\rwarframe.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A819B2E3-AFFB-48BD-AE58-29C6B37AA49A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7369D9-626E-473B-9FA9-024D4A913A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28770" yWindow="0" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flair.js" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="376">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1157,67 +1158,7 @@
     <t>{background-position-y:</t>
   </si>
   <si>
-    <t>tennogenwarframehelmetsflair</t>
-  </si>
-  <si>
-    <t>operatorsflair</t>
-  </si>
-  <si>
-    <t>miscellaneousflair</t>
-  </si>
-  <si>
-    <t>deluxewarframeskinsflair</t>
-  </si>
-  <si>
-    <t>nyx-pasithea-deluxe-skin</t>
-  </si>
-  <si>
-    <t>Nyx Pasithea deluxe helmet</t>
-  </si>
-  <si>
-    <t>nyx-pasithea-deluxe-helmet</t>
-  </si>
-  <si>
-    <t>nyx-pasithea-deluxe-skin bundle</t>
-  </si>
-  <si>
-    <t>Nyx Pasithea deluxe skin</t>
-  </si>
-  <si>
-    <t>Nyx Pasithea deluxe skin (bundle)</t>
-  </si>
-  <si>
-    <t>regularwarframesflair</t>
-  </si>
-  <si>
-    <t>wisp</t>
-  </si>
-  <si>
-    <t>Wisp</t>
-  </si>
-  <si>
-    <t>wisp-bundle</t>
-  </si>
-  <si>
-    <t>Wisp (bundle)</t>
-  </si>
-  <si>
-    <t>otherwarframehelmetsflair</t>
-  </si>
-  <si>
-    <t>wisp-helmet</t>
-  </si>
-  <si>
-    <t>Wisp helmet</t>
-  </si>
-  <si>
-    <t>companionsflair</t>
-  </si>
-  <si>
-    <t>wisp kavat armor</t>
-  </si>
-  <si>
-    <t>BLAH</t>
+    <t>tennogenwarframeskinsflair</t>
   </si>
 </sst>
 </file>
@@ -1622,8 +1563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1662,8 +1604,8 @@
         <v>103</v>
       </c>
       <c r="J1" s="1" t="str">
-        <f t="shared" ref="J1:J64" si="0">A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1&amp;H1</f>
-        <v>"0 tennogenwarframehelmetsflair  new": "",</v>
+        <f ca="1">TRIM(INDIRECT(ADDRESS(ROW(), 1)))&amp;INDIRECT(ADDRESS(ROW(), 2))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 3)))&amp;INDIRECT(ADDRESS(ROW(), 4))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 5)))&amp;INDIRECT(ADDRESS(ROW(), 6))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 7)))&amp;INDIRECT(ADDRESS(ROW(), 8))</f>
+        <v>"0 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1687,8 +1629,8 @@
         <v>103</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"1 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ref="J2:J65" ca="1" si="0">TRIM(INDIRECT(ADDRESS(ROW(), 1)))&amp;INDIRECT(ADDRESS(ROW(), 2))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 3)))&amp;INDIRECT(ADDRESS(ROW(), 4))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 5)))&amp;INDIRECT(ADDRESS(ROW(), 6))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 7)))&amp;INDIRECT(ADDRESS(ROW(), 8))</f>
+        <v>"1 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1712,8 +1654,8 @@
         <v>103</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"2 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"2 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1737,8 +1679,8 @@
         <v>103</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"3 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"3 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,8 +1704,8 @@
         <v>103</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"4 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"4 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1787,8 +1729,8 @@
         <v>103</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"5 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"5 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1812,8 +1754,8 @@
         <v>103</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"6 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"6 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1837,8 +1779,8 @@
         <v>103</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"7 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"7 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1862,8 +1804,8 @@
         <v>103</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"8 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"8 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,8 +1829,8 @@
         <v>103</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"9 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"9 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1912,8 +1854,8 @@
         <v>103</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"10 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"10 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1937,8 +1879,8 @@
         <v>103</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"11 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"11 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1962,8 +1904,8 @@
         <v>103</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"12 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"12 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,8 +1929,8 @@
         <v>103</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"13 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"13 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2012,8 +1954,8 @@
         <v>103</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"14 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"14 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2037,8 +1979,8 @@
         <v>103</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"15 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"15 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2062,8 +2004,8 @@
         <v>103</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"16 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"16 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2087,8 +2029,8 @@
         <v>103</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"17 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"17 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2112,8 +2054,8 @@
         <v>103</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"18 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"18 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2132,13 +2074,12 @@
       <c r="F20" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G20" s="6"/>
       <c r="H20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"19 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"19 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,13 +2098,12 @@
       <c r="F21" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G21" s="6"/>
       <c r="H21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"20 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"20 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2182,13 +2122,12 @@
       <c r="F22" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G22" s="6"/>
       <c r="H22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"21 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"21 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2207,13 +2146,12 @@
       <c r="F23" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G23" s="6"/>
       <c r="H23" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"22 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"22 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2232,13 +2170,12 @@
       <c r="F24" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G24" s="6"/>
       <c r="H24" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"23 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"23 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2254,16 +2191,17 @@
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"24 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"24 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2286,8 +2224,8 @@
         <v>103</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"25 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"25 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2303,7 +2241,6 @@
       <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
         <v>370</v>
       </c>
@@ -2311,8 +2248,8 @@
         <v>103</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"26 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"26 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2331,12 +2268,13 @@
       <c r="F28" s="1" t="s">
         <v>370</v>
       </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"27 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"27 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2360,8 +2298,8 @@
         <v>103</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"28 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"28 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2380,13 +2318,12 @@
       <c r="F30" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G30" s="2"/>
       <c r="H30" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"29 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"29 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2410,8 +2347,8 @@
         <v>103</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"30 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"30 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2434,8 +2371,8 @@
         <v>103</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"31 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"31 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2459,8 +2396,8 @@
         <v>103</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"32 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"32 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,8 +2420,8 @@
         <v>103</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"33 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"33 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2500,7 +2437,6 @@
       <c r="D35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
         <v>370</v>
       </c>
@@ -2509,8 +2445,8 @@
         <v>103</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"34 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"34 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2526,7 +2462,6 @@
       <c r="D36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
         <v>370</v>
       </c>
@@ -2535,8 +2470,8 @@
         <v>103</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"35 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"35 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2552,7 +2487,6 @@
       <c r="D37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
         <v>370</v>
       </c>
@@ -2561,8 +2495,8 @@
         <v>103</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"36 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"36 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2585,8 +2519,8 @@
         <v>103</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"37 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"37 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2602,7 +2536,6 @@
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
         <v>370</v>
       </c>
@@ -2611,8 +2544,8 @@
         <v>103</v>
       </c>
       <c r="J39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"38 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"38 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2637,8 +2570,8 @@
         <v>103</v>
       </c>
       <c r="J40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"39 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"39 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2662,8 +2595,8 @@
         <v>103</v>
       </c>
       <c r="J41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"40 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"40 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2687,8 +2620,8 @@
         <v>103</v>
       </c>
       <c r="J42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"41 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"41 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2712,8 +2645,8 @@
         <v>103</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"42 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"42 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2724,26 +2657,22 @@
         <v>0</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>379</v>
-      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>383</v>
-      </c>
+      <c r="G44" s="7"/>
       <c r="H44" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"43 deluxewarframeskinsflair nyx-pasithea-deluxe-skin new": "Nyx Pasithea deluxe skin",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"43 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2754,26 +2683,22 @@
         <v>0</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>382</v>
-      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>384</v>
-      </c>
+      <c r="G45" s="7"/>
       <c r="H45" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"44 deluxewarframeskinsflair nyx-pasithea-deluxe-skin bundle new": "Nyx Pasithea deluxe skin (bundle)",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"44 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,6 +2714,7 @@
       <c r="D46" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="1" t="s">
         <v>370</v>
       </c>
@@ -2797,8 +2723,8 @@
         <v>103</v>
       </c>
       <c r="J46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"45 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"45 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2814,6 +2740,7 @@
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="1" t="s">
         <v>370</v>
       </c>
@@ -2822,8 +2749,8 @@
         <v>103</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"46 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"46 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2839,6 +2766,7 @@
       <c r="D48" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="1" t="s">
         <v>370</v>
       </c>
@@ -2847,8 +2775,8 @@
         <v>103</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"47 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"47 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2864,6 +2792,7 @@
       <c r="D49" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="1" t="s">
         <v>370</v>
       </c>
@@ -2872,8 +2801,8 @@
         <v>103</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"48 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"48 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2889,6 +2818,7 @@
       <c r="D50" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="1" t="s">
         <v>370</v>
       </c>
@@ -2897,8 +2827,8 @@
         <v>103</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"49 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"49 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2914,16 +2844,17 @@
       <c r="D51" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"50 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"50 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2939,16 +2870,17 @@
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E52" s="6"/>
       <c r="F52" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"51 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"51 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2964,7 +2896,7 @@
       <c r="D53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="1" t="s">
         <v>370</v>
       </c>
@@ -2973,8 +2905,8 @@
         <v>103</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"52 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"52 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2990,17 +2922,17 @@
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G54" s="6"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"53 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"53 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3016,17 +2948,17 @@
       <c r="D55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G55" s="6"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"54 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"54 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3051,8 +2983,8 @@
         <v>103</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"55 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"55 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3077,8 +3009,8 @@
         <v>103</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"56 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"56 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3103,8 +3035,8 @@
         <v>103</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"57 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"57 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3129,8 +3061,8 @@
         <v>103</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"58 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"58 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3155,8 +3087,8 @@
         <v>103</v>
       </c>
       <c r="J60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"59 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"59 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3181,8 +3113,8 @@
         <v>103</v>
       </c>
       <c r="J61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"60 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"60 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3207,8 +3139,8 @@
         <v>103</v>
       </c>
       <c r="J62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"61 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"61 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3233,8 +3165,8 @@
         <v>103</v>
       </c>
       <c r="J63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"62 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"62 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3259,8 +3191,8 @@
         <v>103</v>
       </c>
       <c r="J64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"63 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"63 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,8 +3216,8 @@
         <v>103</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f t="shared" ref="J65:J128" si="1">A65&amp;B65&amp;C65&amp;D65&amp;E65&amp;F65&amp;G65&amp;H65</f>
-        <v>"64 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>"64 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3309,8 +3241,8 @@
         <v>103</v>
       </c>
       <c r="J66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"65 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ref="J66:J129" ca="1" si="1">TRIM(INDIRECT(ADDRESS(ROW(), 1)))&amp;INDIRECT(ADDRESS(ROW(), 2))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 3)))&amp;INDIRECT(ADDRESS(ROW(), 4))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 5)))&amp;INDIRECT(ADDRESS(ROW(), 6))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 7)))&amp;INDIRECT(ADDRESS(ROW(), 8))</f>
+        <v>"65 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3321,26 +3253,22 @@
         <v>0</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>381</v>
-      </c>
+      <c r="E67" s="5"/>
       <c r="F67" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>380</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"66 deluxewarframeskinsflair nyx-pasithea-deluxe-helmet new": "Nyx Pasithea deluxe helmet",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"66 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3364,8 +3292,8 @@
         <v>103</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"67 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"67 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3389,8 +3317,8 @@
         <v>103</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"68 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"68 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3414,8 +3342,8 @@
         <v>103</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"69 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"69 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3439,8 +3367,8 @@
         <v>103</v>
       </c>
       <c r="J71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"70 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"70 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,8 +3392,8 @@
         <v>103</v>
       </c>
       <c r="J72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"71 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"71 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3481,16 +3409,17 @@
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G73" s="6"/>
+      <c r="G73" s="7"/>
       <c r="H73" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"72 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"72 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3506,6 +3435,7 @@
       <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E74" s="6"/>
       <c r="F74" s="1" t="s">
         <v>370</v>
       </c>
@@ -3514,8 +3444,8 @@
         <v>103</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"73 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"73 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3531,16 +3461,17 @@
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G75" s="6"/>
+      <c r="G75" s="7"/>
       <c r="H75" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"74 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"74 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3564,8 +3495,8 @@
         <v>103</v>
       </c>
       <c r="J76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"75 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"75 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3589,8 +3520,8 @@
         <v>103</v>
       </c>
       <c r="J77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"76 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"76 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3614,8 +3545,8 @@
         <v>103</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"77 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"77 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3639,8 +3570,8 @@
         <v>103</v>
       </c>
       <c r="J79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"78 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"78 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3664,8 +3595,8 @@
         <v>103</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"79 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"79 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3689,8 +3620,8 @@
         <v>103</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"80 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"80 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3714,8 +3645,8 @@
         <v>103</v>
       </c>
       <c r="J82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"81 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"81 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3739,8 +3670,8 @@
         <v>103</v>
       </c>
       <c r="J83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"82 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"82 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3764,8 +3695,8 @@
         <v>103</v>
       </c>
       <c r="J84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"83 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"83 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3789,8 +3720,8 @@
         <v>103</v>
       </c>
       <c r="J85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"84 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"84 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3814,8 +3745,8 @@
         <v>103</v>
       </c>
       <c r="J86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"85 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"85 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3839,8 +3770,8 @@
         <v>103</v>
       </c>
       <c r="J87" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"86 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"86 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3864,8 +3795,8 @@
         <v>103</v>
       </c>
       <c r="J88" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"87 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"87 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3889,8 +3820,8 @@
         <v>103</v>
       </c>
       <c r="J89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"88 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"88 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3914,8 +3845,8 @@
         <v>103</v>
       </c>
       <c r="J90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"89 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"89 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3939,8 +3870,8 @@
         <v>103</v>
       </c>
       <c r="J91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"90 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"90 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3964,8 +3895,8 @@
         <v>103</v>
       </c>
       <c r="J92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"91 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"91 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3989,8 +3920,8 @@
         <v>103</v>
       </c>
       <c r="J93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"92 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"92 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4014,8 +3945,8 @@
         <v>103</v>
       </c>
       <c r="J94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"93 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"93 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4039,8 +3970,8 @@
         <v>103</v>
       </c>
       <c r="J95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"94 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"94 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4064,8 +3995,8 @@
         <v>103</v>
       </c>
       <c r="J96" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"95 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"95 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,26 +4007,21 @@
         <v>0</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G97" s="6" t="s">
-        <v>395</v>
-      </c>
+      <c r="G97" s="6"/>
       <c r="H97" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"96 companionsflair wisp kavat armor new": "BLAH",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"96 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4119,8 +4045,8 @@
         <v>103</v>
       </c>
       <c r="J98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"97 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"97 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4131,26 +4057,21 @@
         <v>0</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G99" s="6" t="s">
-        <v>392</v>
-      </c>
+      <c r="G99" s="6"/>
       <c r="H99" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"98 otherwarframehelmetsflair wisp-helmet new": "Wisp helmet",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"98 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4174,8 +4095,8 @@
         <v>103</v>
       </c>
       <c r="J100" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"99 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"99 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4199,8 +4120,8 @@
         <v>103</v>
       </c>
       <c r="J101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"100 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"100 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4219,13 +4140,13 @@
       <c r="F102" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G102" s="6"/>
+      <c r="G102" s="5"/>
       <c r="H102" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"101 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"101 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4249,8 +4170,8 @@
         <v>103</v>
       </c>
       <c r="J103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"102 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"102 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4269,13 +4190,13 @@
       <c r="F104" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G104" s="6"/>
+      <c r="G104" s="5"/>
       <c r="H104" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J104" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"103 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"103 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4294,13 +4215,12 @@
       <c r="F105" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G105" s="6"/>
       <c r="H105" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J105" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"104 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"104 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4319,13 +4239,12 @@
       <c r="F106" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G106" s="6"/>
       <c r="H106" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J106" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"105 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"105 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4344,13 +4263,13 @@
       <c r="F107" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G107" s="6"/>
+      <c r="G107" s="5"/>
       <c r="H107" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"106 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"106 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4369,13 +4288,12 @@
       <c r="F108" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G108" s="6"/>
       <c r="H108" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"107 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"107 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4394,13 +4312,12 @@
       <c r="F109" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G109" s="6"/>
       <c r="H109" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"108 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"108 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4419,13 +4336,12 @@
       <c r="F110" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G110" s="6"/>
       <c r="H110" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J110" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"109 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"109 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4444,13 +4360,12 @@
       <c r="F111" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G111" s="6"/>
       <c r="H111" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"110 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"110 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4474,8 +4389,8 @@
         <v>103</v>
       </c>
       <c r="J112" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"111 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"111 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4499,8 +4414,8 @@
         <v>103</v>
       </c>
       <c r="J113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"112 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"112 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4524,8 +4439,8 @@
         <v>103</v>
       </c>
       <c r="J114" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"113 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"113 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4549,8 +4464,8 @@
         <v>103</v>
       </c>
       <c r="J115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"114 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"114 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4561,26 +4476,21 @@
         <v>0</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="G116" s="6"/>
       <c r="H116" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"115 regularwarframesflair wisp new": "Wisp",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"115 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4591,26 +4501,21 @@
         <v>0</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G117" s="6" t="s">
-        <v>389</v>
-      </c>
+      <c r="G117" s="6"/>
       <c r="H117" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"116 regularwarframesflair wisp-bundle new": "Wisp (bundle)",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"116 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4629,13 +4534,12 @@
       <c r="F118" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G118" s="6"/>
       <c r="H118" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"117 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"117 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4654,13 +4558,12 @@
       <c r="F119" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G119" s="6"/>
       <c r="H119" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J119" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"118 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"118 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4683,8 +4586,8 @@
         <v>103</v>
       </c>
       <c r="J120" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"119 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"119 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4707,8 +4610,8 @@
         <v>103</v>
       </c>
       <c r="J121" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"120 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"120 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4724,6 +4627,7 @@
       <c r="D122" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E122" s="5"/>
       <c r="F122" s="1" t="s">
         <v>370</v>
       </c>
@@ -4731,8 +4635,8 @@
         <v>103</v>
       </c>
       <c r="J122" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"121 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"121 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4755,8 +4659,8 @@
         <v>103</v>
       </c>
       <c r="J123" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"122 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"122 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4779,8 +4683,8 @@
         <v>103</v>
       </c>
       <c r="J124" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"123 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"123 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4803,8 +4707,8 @@
         <v>103</v>
       </c>
       <c r="J125" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"124 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"124 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4827,8 +4731,8 @@
         <v>103</v>
       </c>
       <c r="J126" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"125 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"125 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4851,8 +4755,8 @@
         <v>103</v>
       </c>
       <c r="J127" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"126 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"126 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4875,8 +4779,8 @@
         <v>103</v>
       </c>
       <c r="J128" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"127 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"127 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4899,8 +4803,8 @@
         <v>103</v>
       </c>
       <c r="J129" s="1" t="str">
-        <f t="shared" ref="J129:J192" si="2">A129&amp;B129&amp;C129&amp;D129&amp;E129&amp;F129&amp;G129&amp;H129</f>
-        <v>"128 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>"128 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4923,8 +4827,8 @@
         <v>103</v>
       </c>
       <c r="J130" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"129 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ref="J130:J193" ca="1" si="2">TRIM(INDIRECT(ADDRESS(ROW(), 1)))&amp;INDIRECT(ADDRESS(ROW(), 2))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 3)))&amp;INDIRECT(ADDRESS(ROW(), 4))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 5)))&amp;INDIRECT(ADDRESS(ROW(), 6))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 7)))&amp;INDIRECT(ADDRESS(ROW(), 8))</f>
+        <v>"129 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4947,8 +4851,8 @@
         <v>103</v>
       </c>
       <c r="J131" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"130 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"130 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4971,8 +4875,8 @@
         <v>103</v>
       </c>
       <c r="J132" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"131 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"131 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4995,8 +4899,8 @@
         <v>103</v>
       </c>
       <c r="J133" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"132 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"132 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5019,8 +4923,8 @@
         <v>103</v>
       </c>
       <c r="J134" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"133 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"133 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5043,8 +4947,8 @@
         <v>103</v>
       </c>
       <c r="J135" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"134 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"134 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5067,8 +4971,8 @@
         <v>103</v>
       </c>
       <c r="J136" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"135 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"135 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5091,8 +4995,8 @@
         <v>103</v>
       </c>
       <c r="J137" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"136 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"136 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5115,8 +5019,8 @@
         <v>103</v>
       </c>
       <c r="J138" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"137 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"137 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5139,8 +5043,8 @@
         <v>103</v>
       </c>
       <c r="J139" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"138 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"138 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5163,8 +5067,8 @@
         <v>103</v>
       </c>
       <c r="J140" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"139 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"139 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5187,8 +5091,8 @@
         <v>103</v>
       </c>
       <c r="J141" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"140 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"140 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5211,8 +5115,8 @@
         <v>103</v>
       </c>
       <c r="J142" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"141 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"141 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5235,8 +5139,8 @@
         <v>103</v>
       </c>
       <c r="J143" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"142 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"142 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5259,8 +5163,8 @@
         <v>103</v>
       </c>
       <c r="J144" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"143 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"143 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5283,8 +5187,8 @@
         <v>103</v>
       </c>
       <c r="J145" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"144 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"144 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5307,8 +5211,8 @@
         <v>103</v>
       </c>
       <c r="J146" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"145 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"145 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5331,8 +5235,8 @@
         <v>103</v>
       </c>
       <c r="J147" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"146 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"146 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5355,8 +5259,8 @@
         <v>103</v>
       </c>
       <c r="J148" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"147 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"147 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5379,8 +5283,8 @@
         <v>103</v>
       </c>
       <c r="J149" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"148 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"148 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5403,8 +5307,8 @@
         <v>103</v>
       </c>
       <c r="J150" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"149 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"149 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5427,8 +5331,8 @@
         <v>103</v>
       </c>
       <c r="J151" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"150 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"150 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5451,8 +5355,8 @@
         <v>103</v>
       </c>
       <c r="J152" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"151 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"151 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5463,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>0</v>
@@ -5475,8 +5379,8 @@
         <v>103</v>
       </c>
       <c r="J153" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"152 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"152 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5487,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>0</v>
@@ -5499,8 +5403,8 @@
         <v>103</v>
       </c>
       <c r="J154" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"153 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"153 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5511,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>0</v>
@@ -5523,8 +5427,8 @@
         <v>103</v>
       </c>
       <c r="J155" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"154 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"154 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5535,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>0</v>
@@ -5547,8 +5451,8 @@
         <v>103</v>
       </c>
       <c r="J156" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"155 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"155 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5559,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>0</v>
@@ -5571,8 +5475,8 @@
         <v>103</v>
       </c>
       <c r="J157" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"156 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"156 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5583,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>0</v>
@@ -5595,8 +5499,8 @@
         <v>103</v>
       </c>
       <c r="J158" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"157 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"157 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5607,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>0</v>
@@ -5619,8 +5523,8 @@
         <v>103</v>
       </c>
       <c r="J159" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"158 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"158 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5631,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>0</v>
@@ -5643,8 +5547,8 @@
         <v>103</v>
       </c>
       <c r="J160" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"159 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"159 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5655,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>0</v>
@@ -5667,8 +5571,8 @@
         <v>103</v>
       </c>
       <c r="J161" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"160 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"160 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5679,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>0</v>
@@ -5691,8 +5595,8 @@
         <v>103</v>
       </c>
       <c r="J162" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"161 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"161 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5703,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>0</v>
@@ -5715,8 +5619,8 @@
         <v>103</v>
       </c>
       <c r="J163" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"162 miscellaneousflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"162 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5739,8 +5643,8 @@
         <v>103</v>
       </c>
       <c r="J164" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"163 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"163 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -5763,8 +5667,8 @@
         <v>103</v>
       </c>
       <c r="J165" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"164 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"164 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5787,8 +5691,8 @@
         <v>103</v>
       </c>
       <c r="J166" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"165 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"165 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5799,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>0</v>
@@ -5811,8 +5715,8 @@
         <v>103</v>
       </c>
       <c r="J167" s="1" t="str">
-        <f t="shared" ref="J167:J178" si="3">A167&amp;B167&amp;C167&amp;D167&amp;E167&amp;F167&amp;G167&amp;H167</f>
-        <v>"166 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"166 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5823,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>0</v>
@@ -5835,8 +5739,8 @@
         <v>103</v>
       </c>
       <c r="J168" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"167 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"167 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5847,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>0</v>
@@ -5859,8 +5763,8 @@
         <v>103</v>
       </c>
       <c r="J169" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"168 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"168 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5871,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>0</v>
@@ -5883,8 +5787,8 @@
         <v>103</v>
       </c>
       <c r="J170" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"169 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"169 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5895,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>0</v>
@@ -5907,8 +5811,8 @@
         <v>103</v>
       </c>
       <c r="J171" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"170 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"170 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5919,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>0</v>
@@ -5931,8 +5835,8 @@
         <v>103</v>
       </c>
       <c r="J172" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"171 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"171 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5943,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>0</v>
@@ -5955,8 +5859,8 @@
         <v>103</v>
       </c>
       <c r="J173" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"172 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"172 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5967,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>0</v>
@@ -5979,8 +5883,8 @@
         <v>103</v>
       </c>
       <c r="J174" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"173 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"173 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -5991,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>0</v>
@@ -6003,8 +5907,8 @@
         <v>103</v>
       </c>
       <c r="J175" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"174 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"174 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6015,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>0</v>
@@ -6027,8 +5931,8 @@
         <v>103</v>
       </c>
       <c r="J176" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"175 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"175 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6039,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>0</v>
@@ -6051,8 +5955,8 @@
         <v>103</v>
       </c>
       <c r="J177" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"176 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"176 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6063,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>0</v>
@@ -6075,8 +5979,8 @@
         <v>103</v>
       </c>
       <c r="J178" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>"177 operatorsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"177 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6099,8 +6003,8 @@
         <v>103</v>
       </c>
       <c r="J179" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"178 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"178 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6123,8 +6027,8 @@
         <v>103</v>
       </c>
       <c r="J180" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"179 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"179 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6147,8 +6051,8 @@
         <v>103</v>
       </c>
       <c r="J181" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"180 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"180 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6171,8 +6075,8 @@
         <v>103</v>
       </c>
       <c r="J182" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"181 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"181 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6195,8 +6099,8 @@
         <v>103</v>
       </c>
       <c r="J183" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"182 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"182 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6219,8 +6123,8 @@
         <v>103</v>
       </c>
       <c r="J184" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"183 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"183 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6243,8 +6147,8 @@
         <v>103</v>
       </c>
       <c r="J185" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"184 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"184 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6267,8 +6171,8 @@
         <v>103</v>
       </c>
       <c r="J186" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"185 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"185 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -6291,8 +6195,8 @@
         <v>103</v>
       </c>
       <c r="J187" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"186 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"186 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6315,8 +6219,8 @@
         <v>103</v>
       </c>
       <c r="J188" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"187 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"187 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6339,8 +6243,8 @@
         <v>103</v>
       </c>
       <c r="J189" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"188 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"188 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6363,8 +6267,8 @@
         <v>103</v>
       </c>
       <c r="J190" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"189 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"189 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6387,8 +6291,8 @@
         <v>103</v>
       </c>
       <c r="J191" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"190 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"190 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6411,8 +6315,8 @@
         <v>103</v>
       </c>
       <c r="J192" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>"191 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"191 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6435,8 +6339,8 @@
         <v>103</v>
       </c>
       <c r="J193" s="1" t="str">
-        <f t="shared" ref="J193:J256" si="4">A193&amp;B193&amp;C193&amp;D193&amp;E193&amp;F193&amp;G193&amp;H193</f>
-        <v>"192 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>"192 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6459,8 +6363,8 @@
         <v>103</v>
       </c>
       <c r="J194" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"193 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ref="J194:J257" ca="1" si="3">TRIM(INDIRECT(ADDRESS(ROW(), 1)))&amp;INDIRECT(ADDRESS(ROW(), 2))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 3)))&amp;INDIRECT(ADDRESS(ROW(), 4))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 5)))&amp;INDIRECT(ADDRESS(ROW(), 6))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 7)))&amp;INDIRECT(ADDRESS(ROW(), 8))</f>
+        <v>"193 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6483,8 +6387,8 @@
         <v>103</v>
       </c>
       <c r="J195" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"194 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"194 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6507,8 +6411,8 @@
         <v>103</v>
       </c>
       <c r="J196" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"195 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"195 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6531,8 +6435,8 @@
         <v>103</v>
       </c>
       <c r="J197" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"196 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"196 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6555,8 +6459,8 @@
         <v>103</v>
       </c>
       <c r="J198" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"197 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"197 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -6580,8 +6484,8 @@
         <v>103</v>
       </c>
       <c r="J199" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"198 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"198 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -6605,8 +6509,8 @@
         <v>103</v>
       </c>
       <c r="J200" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"199 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"199 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6630,8 +6534,8 @@
         <v>103</v>
       </c>
       <c r="J201" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"200 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"200 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6655,8 +6559,8 @@
         <v>103</v>
       </c>
       <c r="J202" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"201 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"201 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6680,8 +6584,8 @@
         <v>103</v>
       </c>
       <c r="J203" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"202 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"202 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6705,8 +6609,8 @@
         <v>103</v>
       </c>
       <c r="J204" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"203 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"203 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6730,8 +6634,8 @@
         <v>103</v>
       </c>
       <c r="J205" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"204 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"204 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6755,8 +6659,8 @@
         <v>103</v>
       </c>
       <c r="J206" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"205 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"205 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6780,8 +6684,8 @@
         <v>103</v>
       </c>
       <c r="J207" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"206 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"206 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6804,8 +6708,8 @@
         <v>103</v>
       </c>
       <c r="J208" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"207 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"207 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -6828,8 +6732,8 @@
         <v>103</v>
       </c>
       <c r="J209" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"208 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"208 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -6852,8 +6756,8 @@
         <v>103</v>
       </c>
       <c r="J210" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"209 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"209 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -6876,8 +6780,8 @@
         <v>103</v>
       </c>
       <c r="J211" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"210 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"210 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -6900,8 +6804,8 @@
         <v>103</v>
       </c>
       <c r="J212" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"211 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"211 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -6924,8 +6828,8 @@
         <v>103</v>
       </c>
       <c r="J213" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"212 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"212 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -6948,8 +6852,8 @@
         <v>103</v>
       </c>
       <c r="J214" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"213 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"213 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -6972,8 +6876,8 @@
         <v>103</v>
       </c>
       <c r="J215" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"214 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"214 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -6996,8 +6900,8 @@
         <v>103</v>
       </c>
       <c r="J216" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"215 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"215 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7020,8 +6924,8 @@
         <v>103</v>
       </c>
       <c r="J217" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"216 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"216 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7044,8 +6948,8 @@
         <v>103</v>
       </c>
       <c r="J218" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"217 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"217 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7068,8 +6972,8 @@
         <v>103</v>
       </c>
       <c r="J219" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"218 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"218 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7092,8 +6996,8 @@
         <v>103</v>
       </c>
       <c r="J220" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"219 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"219 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7116,8 +7020,8 @@
         <v>103</v>
       </c>
       <c r="J221" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"220 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"220 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7140,8 +7044,8 @@
         <v>103</v>
       </c>
       <c r="J222" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"221 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"221 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7164,8 +7068,8 @@
         <v>103</v>
       </c>
       <c r="J223" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"222 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"222 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7188,8 +7092,8 @@
         <v>103</v>
       </c>
       <c r="J224" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"223 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"223 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7212,8 +7116,8 @@
         <v>103</v>
       </c>
       <c r="J225" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"224 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"224 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7236,8 +7140,8 @@
         <v>103</v>
       </c>
       <c r="J226" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"225 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"225 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7260,8 +7164,8 @@
         <v>103</v>
       </c>
       <c r="J227" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"226 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"226 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7284,8 +7188,8 @@
         <v>103</v>
       </c>
       <c r="J228" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"227 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"227 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7308,8 +7212,8 @@
         <v>103</v>
       </c>
       <c r="J229" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"228 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"228 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7332,8 +7236,8 @@
         <v>103</v>
       </c>
       <c r="J230" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"229 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"229 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7356,8 +7260,8 @@
         <v>103</v>
       </c>
       <c r="J231" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"230 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"230 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7380,8 +7284,8 @@
         <v>103</v>
       </c>
       <c r="J232" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"231 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"231 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7404,8 +7308,8 @@
         <v>103</v>
       </c>
       <c r="J233" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"232 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"232 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7428,8 +7332,8 @@
         <v>103</v>
       </c>
       <c r="J234" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"233 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"233 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -7452,8 +7356,8 @@
         <v>103</v>
       </c>
       <c r="J235" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"234 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"234 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7476,8 +7380,8 @@
         <v>103</v>
       </c>
       <c r="J236" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"235 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"235 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7500,8 +7404,8 @@
         <v>103</v>
       </c>
       <c r="J237" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"236 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"236 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -7524,8 +7428,8 @@
         <v>103</v>
       </c>
       <c r="J238" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"237 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"237 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7548,8 +7452,8 @@
         <v>103</v>
       </c>
       <c r="J239" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"238 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"238 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -7572,8 +7476,8 @@
         <v>103</v>
       </c>
       <c r="J240" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"239 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"239 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7596,8 +7500,8 @@
         <v>103</v>
       </c>
       <c r="J241" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"240 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"240 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -7620,8 +7524,8 @@
         <v>103</v>
       </c>
       <c r="J242" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"241 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"241 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -7644,8 +7548,8 @@
         <v>103</v>
       </c>
       <c r="J243" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"242 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"242 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -7668,8 +7572,8 @@
         <v>103</v>
       </c>
       <c r="J244" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"243 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"243 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -7692,8 +7596,8 @@
         <v>103</v>
       </c>
       <c r="J245" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"244 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"244 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -7716,8 +7620,8 @@
         <v>103</v>
       </c>
       <c r="J246" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"245 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"245 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -7740,8 +7644,8 @@
         <v>103</v>
       </c>
       <c r="J247" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"246 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"246 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -7764,8 +7668,8 @@
         <v>103</v>
       </c>
       <c r="J248" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"247 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"247 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -7788,8 +7692,8 @@
         <v>103</v>
       </c>
       <c r="J249" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"248 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"248 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -7812,8 +7716,8 @@
         <v>103</v>
       </c>
       <c r="J250" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"249 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"249 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -7836,8 +7740,8 @@
         <v>103</v>
       </c>
       <c r="J251" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"250 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"250 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -7860,8 +7764,8 @@
         <v>103</v>
       </c>
       <c r="J252" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"251 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"251 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -7884,8 +7788,8 @@
         <v>103</v>
       </c>
       <c r="J253" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"252 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"252 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -7908,8 +7812,8 @@
         <v>103</v>
       </c>
       <c r="J254" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"253 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"253 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -7932,8 +7836,8 @@
         <v>103</v>
       </c>
       <c r="J255" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"254 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"254 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -7956,8 +7860,8 @@
         <v>103</v>
       </c>
       <c r="J256" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"255 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"255 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -7980,8 +7884,8 @@
         <v>103</v>
       </c>
       <c r="J257" s="1" t="str">
-        <f t="shared" ref="J257:J300" si="5">A257&amp;B257&amp;C257&amp;D257&amp;E257&amp;F257&amp;G257&amp;H257</f>
-        <v>"256 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>"256 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -8004,8 +7908,8 @@
         <v>103</v>
       </c>
       <c r="J258" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"257 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ref="J258:J300" ca="1" si="4">TRIM(INDIRECT(ADDRESS(ROW(), 1)))&amp;INDIRECT(ADDRESS(ROW(), 2))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 3)))&amp;INDIRECT(ADDRESS(ROW(), 4))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 5)))&amp;INDIRECT(ADDRESS(ROW(), 6))&amp;TRIM(INDIRECT(ADDRESS(ROW(), 7)))&amp;INDIRECT(ADDRESS(ROW(), 8))</f>
+        <v>"257 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -8028,8 +7932,8 @@
         <v>103</v>
       </c>
       <c r="J259" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"258 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"258 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -8052,8 +7956,8 @@
         <v>103</v>
       </c>
       <c r="J260" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"259 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"259 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -8076,8 +7980,8 @@
         <v>103</v>
       </c>
       <c r="J261" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"260 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"260 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -8100,8 +8004,8 @@
         <v>103</v>
       </c>
       <c r="J262" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"261 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"261 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -8124,8 +8028,8 @@
         <v>103</v>
       </c>
       <c r="J263" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"262 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"262 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -8148,8 +8052,8 @@
         <v>103</v>
       </c>
       <c r="J264" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"263 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"263 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -8172,8 +8076,8 @@
         <v>103</v>
       </c>
       <c r="J265" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"264 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"264 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -8196,8 +8100,8 @@
         <v>103</v>
       </c>
       <c r="J266" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"265 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"265 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -8220,8 +8124,8 @@
         <v>103</v>
       </c>
       <c r="J267" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"266 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"266 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -8244,8 +8148,8 @@
         <v>103</v>
       </c>
       <c r="J268" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"267 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"267 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -8268,8 +8172,8 @@
         <v>103</v>
       </c>
       <c r="J269" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"268 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"268 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -8292,8 +8196,8 @@
         <v>103</v>
       </c>
       <c r="J270" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"269 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"269 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -8316,8 +8220,8 @@
         <v>103</v>
       </c>
       <c r="J271" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"270 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"270 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -8340,8 +8244,8 @@
         <v>103</v>
       </c>
       <c r="J272" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"271 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"271 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -8364,8 +8268,8 @@
         <v>103</v>
       </c>
       <c r="J273" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"272 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"272 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -8388,8 +8292,8 @@
         <v>103</v>
       </c>
       <c r="J274" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"273 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"273 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -8412,8 +8316,8 @@
         <v>103</v>
       </c>
       <c r="J275" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"274 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"274 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -8436,8 +8340,8 @@
         <v>103</v>
       </c>
       <c r="J276" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"275 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"275 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -8460,8 +8364,8 @@
         <v>103</v>
       </c>
       <c r="J277" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"276 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"276 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -8484,8 +8388,8 @@
         <v>103</v>
       </c>
       <c r="J278" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"277 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"277 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -8508,8 +8412,8 @@
         <v>103</v>
       </c>
       <c r="J279" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"278 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"278 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -8532,8 +8436,8 @@
         <v>103</v>
       </c>
       <c r="J280" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"279 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"279 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -8556,8 +8460,8 @@
         <v>103</v>
       </c>
       <c r="J281" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"280 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"280 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -8580,8 +8484,8 @@
         <v>103</v>
       </c>
       <c r="J282" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"281 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"281 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -8604,8 +8508,8 @@
         <v>103</v>
       </c>
       <c r="J283" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"282 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"282 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -8628,8 +8532,8 @@
         <v>103</v>
       </c>
       <c r="J284" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"283 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"283 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -8652,8 +8556,8 @@
         <v>103</v>
       </c>
       <c r="J285" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"284 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"284 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -8676,8 +8580,8 @@
         <v>103</v>
       </c>
       <c r="J286" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"285 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"285 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -8700,8 +8604,8 @@
         <v>103</v>
       </c>
       <c r="J287" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"286 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"286 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -8724,8 +8628,8 @@
         <v>103</v>
       </c>
       <c r="J288" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"287 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"287 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -8748,8 +8652,8 @@
         <v>103</v>
       </c>
       <c r="J289" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"288 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"288 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -8772,8 +8676,8 @@
         <v>103</v>
       </c>
       <c r="J290" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"289 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"289 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -8796,8 +8700,8 @@
         <v>103</v>
       </c>
       <c r="J291" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"290 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"290 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -8820,8 +8724,8 @@
         <v>103</v>
       </c>
       <c r="J292" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"291 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"291 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -8844,8 +8748,8 @@
         <v>103</v>
       </c>
       <c r="J293" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"292 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"292 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -8868,8 +8772,8 @@
         <v>103</v>
       </c>
       <c r="J294" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"293 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"293 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -8892,8 +8796,8 @@
         <v>103</v>
       </c>
       <c r="J295" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"294 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"294 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -8916,8 +8820,8 @@
         <v>103</v>
       </c>
       <c r="J296" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"295 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"295 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -8940,8 +8844,8 @@
         <v>103</v>
       </c>
       <c r="J297" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"296 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"296 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -8964,8 +8868,8 @@
         <v>103</v>
       </c>
       <c r="J298" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"297 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"297 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -8988,8 +8892,8 @@
         <v>103</v>
       </c>
       <c r="J299" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"298 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"298 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -9012,8 +8916,8 @@
         <v>103</v>
       </c>
       <c r="J300" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>"299 tennogenwarframehelmetsflair  new": "",</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>"299 tennogenwarframeskinsflair  new": "",</v>
       </c>
     </row>
   </sheetData>
